--- a/output/move_data.xlsx
+++ b/output/move_data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,18 +19,14 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,18 +45,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -424,33 +427,33 @@
   </sheetPr>
   <dimension ref="A1:I890"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" style="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="7"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="100" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>技能名称（英文）</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>技能名称（中文）</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>编号</t>
         </is>
@@ -460,27 +463,27 @@
           <t>命中率</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>威力</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PP值</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>优先度</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>分类</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>技能描述</t>
         </is>
@@ -500,7 +503,7 @@
       <c r="C2" t="n">
         <v>71</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" t="n">
         <v>100</v>
       </c>
       <c r="E2" t="n">
@@ -537,7 +540,7 @@
       <c r="C3" t="n">
         <v>709</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" t="n">
         <v>100</v>
       </c>
       <c r="E3" t="n">
@@ -574,7 +577,7 @@
       <c r="C4" t="n">
         <v>51</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" t="n">
         <v>100</v>
       </c>
       <c r="E4" t="n">
@@ -611,7 +614,7 @@
       <c r="C5" t="n">
         <v>151</v>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -650,7 +653,7 @@
       <c r="C6" t="n">
         <v>628</v>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -689,7 +692,7 @@
       <c r="C7" t="n">
         <v>491</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" t="n">
         <v>100</v>
       </c>
       <c r="E7" t="n">
@@ -726,7 +729,7 @@
       <c r="C8" t="n">
         <v>367</v>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -765,7 +768,7 @@
       <c r="C9" t="n">
         <v>332</v>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -804,7 +807,7 @@
       <c r="C10" t="n">
         <v>177</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" t="n">
         <v>95</v>
       </c>
       <c r="E10" t="n">
@@ -841,7 +844,7 @@
       <c r="C11" t="n">
         <v>495</v>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -880,7 +883,7 @@
       <c r="C12" t="n">
         <v>97</v>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -919,7 +922,7 @@
       <c r="C13" t="n">
         <v>314</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" t="n">
         <v>95</v>
       </c>
       <c r="E13" t="n">
@@ -956,7 +959,7 @@
       <c r="C14" t="n">
         <v>403</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" t="n">
         <v>95</v>
       </c>
       <c r="E14" t="n">
@@ -993,7 +996,7 @@
       <c r="C15" t="n">
         <v>624</v>
       </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1032,7 +1035,7 @@
       <c r="C16" t="n">
         <v>914</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" t="n">
         <v>100</v>
       </c>
       <c r="E16" t="n">
@@ -1069,7 +1072,7 @@
       <c r="C17" t="n">
         <v>502</v>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1108,7 +1111,7 @@
       <c r="C18" t="n">
         <v>133</v>
       </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1147,7 +1150,7 @@
       <c r="C19" t="n">
         <v>677</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" t="n">
         <v>100</v>
       </c>
       <c r="E19" t="n">
@@ -1184,7 +1187,7 @@
       <c r="C20" t="n">
         <v>246</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" t="n">
         <v>100</v>
       </c>
       <c r="E20" t="n">
@@ -1221,7 +1224,7 @@
       <c r="C21" t="n">
         <v>787</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" t="n">
         <v>100</v>
       </c>
       <c r="E21" t="n">
@@ -1258,7 +1261,7 @@
       <c r="C22" t="n">
         <v>895</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" t="n">
         <v>100</v>
       </c>
       <c r="E22" t="n">
@@ -1295,7 +1298,7 @@
       <c r="C23" t="n">
         <v>453</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" t="n">
         <v>100</v>
       </c>
       <c r="E23" t="n">
@@ -1332,7 +1335,7 @@
       <c r="C24" t="n">
         <v>392</v>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1371,7 +1374,7 @@
       <c r="C25" t="n">
         <v>872</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" t="n">
         <v>100</v>
       </c>
       <c r="E25" t="n">
@@ -1408,7 +1411,7 @@
       <c r="C26" t="n">
         <v>401</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" t="n">
         <v>90</v>
       </c>
       <c r="E26" t="n">
@@ -1445,7 +1448,7 @@
       <c r="C27" t="n">
         <v>890</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" t="n">
         <v>100</v>
       </c>
       <c r="E27" t="n">
@@ -1482,7 +1485,7 @@
       <c r="C28" t="n">
         <v>292</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" t="n">
         <v>100</v>
       </c>
       <c r="E28" t="n">
@@ -1519,7 +1522,7 @@
       <c r="C29" t="n">
         <v>312</v>
       </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1558,7 +1561,7 @@
       <c r="C30" t="n">
         <v>597</v>
       </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1597,7 +1600,7 @@
       <c r="C31" t="n">
         <v>274</v>
       </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1636,7 +1639,7 @@
       <c r="C32" t="n">
         <v>310</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" t="n">
         <v>100</v>
       </c>
       <c r="E32" t="n">
@@ -1673,7 +1676,7 @@
       <c r="C33" t="n">
         <v>825</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" t="n">
         <v>100</v>
       </c>
       <c r="E33" t="n">
@@ -1710,7 +1713,7 @@
       <c r="C34" t="n">
         <v>454</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" t="n">
         <v>100</v>
       </c>
       <c r="E34" t="n">
@@ -1747,7 +1750,7 @@
       <c r="C35" t="n">
         <v>213</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" t="n">
         <v>100</v>
       </c>
       <c r="E35" t="n">
@@ -1784,7 +1787,7 @@
       <c r="C36" t="n">
         <v>396</v>
       </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1823,7 +1826,7 @@
       <c r="C37" t="n">
         <v>783</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" t="n">
         <v>100</v>
       </c>
       <c r="E37" t="n">
@@ -1860,7 +1863,7 @@
       <c r="C38" t="n">
         <v>62</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" t="n">
         <v>100</v>
       </c>
       <c r="E38" t="n">
@@ -1897,7 +1900,7 @@
       <c r="C39" t="n">
         <v>694</v>
       </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1936,7 +1939,7 @@
       <c r="C40" t="n">
         <v>475</v>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -1975,7 +1978,7 @@
       <c r="C41" t="n">
         <v>853</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" t="n">
         <v>90</v>
       </c>
       <c r="E41" t="n">
@@ -2012,7 +2015,7 @@
       <c r="C42" t="n">
         <v>608</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" t="n">
         <v>100</v>
       </c>
       <c r="E42" t="n">
@@ -2049,7 +2052,7 @@
       <c r="C43" t="n">
         <v>737</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" t="n">
         <v>95</v>
       </c>
       <c r="E43" t="n">
@@ -2086,7 +2089,7 @@
       <c r="C44" t="n">
         <v>661</v>
       </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -2125,7 +2128,7 @@
       <c r="C45" t="n">
         <v>839</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" t="n">
         <v>100</v>
       </c>
       <c r="E45" t="n">
@@ -2162,7 +2165,7 @@
       <c r="C46" t="n">
         <v>140</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46" t="n">
         <v>85</v>
       </c>
       <c r="E46" t="n">
@@ -2199,7 +2202,7 @@
       <c r="C47" t="n">
         <v>112</v>
       </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -2238,7 +2241,7 @@
       <c r="C48" t="n">
         <v>226</v>
       </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -2277,7 +2280,7 @@
       <c r="C49" t="n">
         <v>690</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" t="n">
         <v>100</v>
       </c>
       <c r="E49" t="n">
@@ -2314,7 +2317,7 @@
       <c r="C50" t="n">
         <v>782</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" t="n">
         <v>100</v>
       </c>
       <c r="E50" t="n">
@@ -2351,7 +2354,7 @@
       <c r="C51" t="n">
         <v>781</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" t="n">
         <v>100</v>
       </c>
       <c r="E51" t="n">
@@ -2388,7 +2391,7 @@
       <c r="C52" t="n">
         <v>562</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" t="n">
         <v>90</v>
       </c>
       <c r="E52" t="n">
@@ -2425,7 +2428,7 @@
       <c r="C53" t="n">
         <v>187</v>
       </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -2464,7 +2467,7 @@
       <c r="C54" t="n">
         <v>516</v>
       </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -2503,7 +2506,7 @@
       <c r="C55" t="n">
         <v>117</v>
       </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -2542,7 +2545,7 @@
       <c r="C56" t="n">
         <v>20</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" t="n">
         <v>85</v>
       </c>
       <c r="E56" t="n">
@@ -2579,7 +2582,7 @@
       <c r="C57" t="n">
         <v>44</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" t="n">
         <v>100</v>
       </c>
       <c r="E57" t="n">
@@ -2616,7 +2619,7 @@
       <c r="C58" t="n">
         <v>891</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" t="n">
         <v>100</v>
       </c>
       <c r="E58" t="n">
@@ -2653,7 +2656,7 @@
       <c r="C59" t="n">
         <v>841</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" t="n">
         <v>100</v>
       </c>
       <c r="E59" t="n">
@@ -2690,7 +2693,7 @@
       <c r="C60" t="n">
         <v>654</v>
       </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -2729,7 +2732,7 @@
       <c r="C61" t="n">
         <v>307</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" t="n">
         <v>90</v>
       </c>
       <c r="E61" t="n">
@@ -2766,7 +2769,7 @@
       <c r="C62" t="n">
         <v>299</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D62" t="n">
         <v>90</v>
       </c>
       <c r="E62" t="n">
@@ -2803,7 +2806,7 @@
       <c r="C63" t="n">
         <v>896</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D63" t="n">
         <v>100</v>
       </c>
       <c r="E63" t="n">
@@ -2820,7 +2823,11 @@
           <t>Physical</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2836,7 +2843,7 @@
       <c r="C64" t="n">
         <v>846</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" t="n">
         <v>80</v>
       </c>
       <c r="E64" t="n">
@@ -2873,7 +2880,7 @@
       <c r="C65" t="n">
         <v>59</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" t="n">
         <v>70</v>
       </c>
       <c r="E65" t="n">
@@ -2910,7 +2917,7 @@
       <c r="C66" t="n">
         <v>335</v>
       </c>
-      <c r="D66" s="1" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -2949,7 +2956,7 @@
       <c r="C67" t="n">
         <v>901</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" t="n">
         <v>100</v>
       </c>
       <c r="E67" t="n">
@@ -2986,7 +2993,7 @@
       <c r="C68" t="n">
         <v>644</v>
       </c>
-      <c r="D68" s="1" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -3025,7 +3032,7 @@
       <c r="C69" t="n">
         <v>551</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" t="n">
         <v>85</v>
       </c>
       <c r="E69" t="n">
@@ -3062,7 +3069,7 @@
       <c r="C70" t="n">
         <v>776</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" t="n">
         <v>100</v>
       </c>
       <c r="E70" t="n">
@@ -3099,7 +3106,7 @@
       <c r="C71" t="n">
         <v>34</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D71" t="n">
         <v>100</v>
       </c>
       <c r="E71" t="n">
@@ -3136,7 +3143,7 @@
       <c r="C72" t="n">
         <v>550</v>
       </c>
-      <c r="D72" s="1" t="n">
+      <c r="D72" t="n">
         <v>85</v>
       </c>
       <c r="E72" t="n">
@@ -3173,7 +3180,7 @@
       <c r="C73" t="n">
         <v>125</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c r="D73" t="n">
         <v>85</v>
       </c>
       <c r="E73" t="n">
@@ -3210,7 +3217,7 @@
       <c r="C74" t="n">
         <v>155</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D74" t="n">
         <v>90</v>
       </c>
       <c r="E74" t="n">
@@ -3247,7 +3254,7 @@
       <c r="C75" t="n">
         <v>198</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="D75" t="n">
         <v>90</v>
       </c>
       <c r="E75" t="n">
@@ -3284,7 +3291,7 @@
       <c r="C76" t="n">
         <v>586</v>
       </c>
-      <c r="D76" s="1" t="n">
+      <c r="D76" t="n">
         <v>100</v>
       </c>
       <c r="E76" t="n">
@@ -3321,7 +3328,7 @@
       <c r="C77" t="n">
         <v>340</v>
       </c>
-      <c r="D77" s="1" t="n">
+      <c r="D77" t="n">
         <v>85</v>
       </c>
       <c r="E77" t="n">
@@ -3358,7 +3365,7 @@
       <c r="C78" t="n">
         <v>733</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="D78" t="n">
         <v>100</v>
       </c>
       <c r="E78" t="n">
@@ -3395,7 +3402,7 @@
       <c r="C79" t="n">
         <v>785</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" t="n">
         <v>100</v>
       </c>
       <c r="E79" t="n">
@@ -3432,7 +3439,7 @@
       <c r="C80" t="n">
         <v>413</v>
       </c>
-      <c r="D80" s="1" t="n">
+      <c r="D80" t="n">
         <v>100</v>
       </c>
       <c r="E80" t="n">
@@ -3469,7 +3476,7 @@
       <c r="C81" t="n">
         <v>784</v>
       </c>
-      <c r="D81" s="1" t="n">
+      <c r="D81" t="n">
         <v>100</v>
       </c>
       <c r="E81" t="n">
@@ -3506,7 +3513,7 @@
       <c r="C82" t="n">
         <v>622</v>
       </c>
-      <c r="D82" s="1" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -3545,7 +3552,7 @@
       <c r="C83" t="n">
         <v>280</v>
       </c>
-      <c r="D83" s="1" t="n">
+      <c r="D83" t="n">
         <v>100</v>
       </c>
       <c r="E83" t="n">
@@ -3582,7 +3589,7 @@
       <c r="C84" t="n">
         <v>362</v>
       </c>
-      <c r="D84" s="1" t="n">
+      <c r="D84" t="n">
         <v>100</v>
       </c>
       <c r="E84" t="n">
@@ -3619,7 +3626,7 @@
       <c r="C85" t="n">
         <v>693</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="D85" t="n">
         <v>100</v>
       </c>
       <c r="E85" t="n">
@@ -3656,7 +3663,7 @@
       <c r="C86" t="n">
         <v>145</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="D86" t="n">
         <v>100</v>
       </c>
       <c r="E86" t="n">
@@ -3693,7 +3700,7 @@
       <c r="C87" t="n">
         <v>61</v>
       </c>
-      <c r="D87" s="1" t="n">
+      <c r="D87" t="n">
         <v>100</v>
       </c>
       <c r="E87" t="n">
@@ -3730,7 +3737,7 @@
       <c r="C88" t="n">
         <v>450</v>
       </c>
-      <c r="D88" s="1" t="n">
+      <c r="D88" t="n">
         <v>100</v>
       </c>
       <c r="E88" t="n">
@@ -3767,7 +3774,7 @@
       <c r="C89" t="n">
         <v>405</v>
       </c>
-      <c r="D89" s="1" t="n">
+      <c r="D89" t="n">
         <v>100</v>
       </c>
       <c r="E89" t="n">
@@ -3804,7 +3811,7 @@
       <c r="C90" t="n">
         <v>339</v>
       </c>
-      <c r="D90" s="1" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -3843,7 +3850,7 @@
       <c r="C91" t="n">
         <v>523</v>
       </c>
-      <c r="D91" s="1" t="n">
+      <c r="D91" t="n">
         <v>100</v>
       </c>
       <c r="E91" t="n">
@@ -3880,7 +3887,7 @@
       <c r="C92" t="n">
         <v>418</v>
       </c>
-      <c r="D92" s="1" t="n">
+      <c r="D92" t="n">
         <v>100</v>
       </c>
       <c r="E92" t="n">
@@ -3917,7 +3924,7 @@
       <c r="C93" t="n">
         <v>331</v>
       </c>
-      <c r="D93" s="1" t="n">
+      <c r="D93" t="n">
         <v>100</v>
       </c>
       <c r="E93" t="n">
@@ -3954,7 +3961,7 @@
       <c r="C94" t="n">
         <v>908</v>
       </c>
-      <c r="D94" s="1" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -3993,7 +4000,7 @@
       <c r="C95" t="n">
         <v>807</v>
       </c>
-      <c r="D95" s="1" t="n">
+      <c r="D95" t="n">
         <v>100</v>
       </c>
       <c r="E95" t="n">
@@ -4030,7 +4037,7 @@
       <c r="C96" t="n">
         <v>682</v>
       </c>
-      <c r="D96" s="1" t="n">
+      <c r="D96" t="n">
         <v>100</v>
       </c>
       <c r="E96" t="n">
@@ -4067,7 +4074,7 @@
       <c r="C97" t="n">
         <v>734</v>
       </c>
-      <c r="D97" s="1" t="n">
+      <c r="D97" t="n">
         <v>100</v>
       </c>
       <c r="E97" t="n">
@@ -4104,7 +4111,7 @@
       <c r="C98" t="n">
         <v>347</v>
       </c>
-      <c r="D98" s="1" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4143,7 +4150,7 @@
       <c r="C99" t="n">
         <v>293</v>
       </c>
-      <c r="D99" s="1" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4182,7 +4189,7 @@
       <c r="C100" t="n">
         <v>445</v>
       </c>
-      <c r="D100" s="1" t="n">
+      <c r="D100" t="n">
         <v>100</v>
       </c>
       <c r="E100" t="n">
@@ -4219,7 +4226,7 @@
       <c r="C101" t="n">
         <v>658</v>
       </c>
-      <c r="D101" s="1" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4238,7 +4245,11 @@
           <t>Physical</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4254,7 +4265,7 @@
       <c r="C102" t="n">
         <v>845</v>
       </c>
-      <c r="D102" s="1" t="n">
+      <c r="D102" t="n">
         <v>90</v>
       </c>
       <c r="E102" t="n">
@@ -4291,7 +4302,7 @@
       <c r="C103" t="n">
         <v>606</v>
       </c>
-      <c r="D103" s="1" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4330,7 +4341,7 @@
       <c r="C104" t="n">
         <v>268</v>
       </c>
-      <c r="D104" s="1" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4369,7 +4380,7 @@
       <c r="C105" t="n">
         <v>451</v>
       </c>
-      <c r="D105" s="1" t="n">
+      <c r="D105" t="n">
         <v>90</v>
       </c>
       <c r="E105" t="n">
@@ -4406,7 +4417,7 @@
       <c r="C106" t="n">
         <v>204</v>
       </c>
-      <c r="D106" s="1" t="n">
+      <c r="D106" t="n">
         <v>100</v>
       </c>
       <c r="E106" t="n">
@@ -4443,7 +4454,7 @@
       <c r="C107" t="n">
         <v>448</v>
       </c>
-      <c r="D107" s="1" t="n">
+      <c r="D107" t="n">
         <v>100</v>
       </c>
       <c r="E107" t="n">
@@ -4480,7 +4491,7 @@
       <c r="C108" t="n">
         <v>886</v>
       </c>
-      <c r="D108" s="1" t="n">
+      <c r="D108" t="n">
         <v>100</v>
       </c>
       <c r="E108" t="n">
@@ -4517,7 +4528,7 @@
       <c r="C109" t="n">
         <v>881</v>
       </c>
-      <c r="D109" s="1" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4556,7 +4567,7 @@
       <c r="C110" t="n">
         <v>498</v>
       </c>
-      <c r="D110" s="1" t="n">
+      <c r="D110" t="n">
         <v>100</v>
       </c>
       <c r="E110" t="n">
@@ -4593,7 +4604,7 @@
       <c r="C111" t="n">
         <v>835</v>
       </c>
-      <c r="D111" s="1" t="n">
+      <c r="D111" t="n">
         <v>95</v>
       </c>
       <c r="E111" t="n">
@@ -4630,7 +4641,7 @@
       <c r="C112" t="n">
         <v>509</v>
       </c>
-      <c r="D112" s="1" t="n">
+      <c r="D112" t="n">
         <v>90</v>
       </c>
       <c r="E112" t="n">
@@ -4667,7 +4678,7 @@
       <c r="C113" t="n">
         <v>128</v>
       </c>
-      <c r="D113" s="1" t="n">
+      <c r="D113" t="n">
         <v>85</v>
       </c>
       <c r="E113" t="n">
@@ -4704,7 +4715,7 @@
       <c r="C114" t="n">
         <v>691</v>
       </c>
-      <c r="D114" s="1" t="n">
+      <c r="D114" t="n">
         <v>100</v>
       </c>
       <c r="E114" t="n">
@@ -4741,7 +4752,7 @@
       <c r="C115" t="n">
         <v>775</v>
       </c>
-      <c r="D115" s="1" t="n">
+      <c r="D115" t="n">
         <v>100</v>
       </c>
       <c r="E115" t="n">
@@ -4778,7 +4789,7 @@
       <c r="C116" t="n">
         <v>728</v>
       </c>
-      <c r="D116" s="1" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4817,7 +4828,7 @@
       <c r="C117" t="n">
         <v>499</v>
       </c>
-      <c r="D117" s="1" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4856,7 +4867,7 @@
       <c r="C118" t="n">
         <v>370</v>
       </c>
-      <c r="D118" s="1" t="n">
+      <c r="D118" t="n">
         <v>100</v>
       </c>
       <c r="E118" t="n">
@@ -4893,7 +4904,7 @@
       <c r="C119" t="n">
         <v>811</v>
       </c>
-      <c r="D119" s="1" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4932,7 +4943,7 @@
       <c r="C120" t="n">
         <v>489</v>
       </c>
-      <c r="D120" s="1" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -4971,7 +4982,7 @@
       <c r="C121" t="n">
         <v>878</v>
       </c>
-      <c r="D121" s="1" t="n">
+      <c r="D121" t="n">
         <v>100</v>
       </c>
       <c r="E121" t="n">
@@ -5008,7 +5019,7 @@
       <c r="C122" t="n">
         <v>899</v>
       </c>
-      <c r="D122" s="1" t="n">
+      <c r="D122" t="n">
         <v>100</v>
       </c>
       <c r="E122" t="n">
@@ -5025,7 +5036,11 @@
           <t>Physical</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5041,7 +5056,7 @@
       <c r="C123" t="n">
         <v>4</v>
       </c>
-      <c r="D123" s="1" t="n">
+      <c r="D123" t="n">
         <v>85</v>
       </c>
       <c r="E123" t="n">
@@ -5078,7 +5093,7 @@
       <c r="C124" t="n">
         <v>590</v>
       </c>
-      <c r="D124" s="1" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5117,7 +5132,7 @@
       <c r="C125" t="n">
         <v>109</v>
       </c>
-      <c r="D125" s="1" t="n">
+      <c r="D125" t="n">
         <v>100</v>
       </c>
       <c r="E125" t="n">
@@ -5154,7 +5169,7 @@
       <c r="C126" t="n">
         <v>93</v>
       </c>
-      <c r="D126" s="1" t="n">
+      <c r="D126" t="n">
         <v>100</v>
       </c>
       <c r="E126" t="n">
@@ -5191,7 +5206,7 @@
       <c r="C127" t="n">
         <v>132</v>
       </c>
-      <c r="D127" s="1" t="n">
+      <c r="D127" t="n">
         <v>100</v>
       </c>
       <c r="E127" t="n">
@@ -5228,7 +5243,7 @@
       <c r="C128" t="n">
         <v>632</v>
       </c>
-      <c r="D128" s="1" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5267,7 +5282,7 @@
       <c r="C129" t="n">
         <v>160</v>
       </c>
-      <c r="D129" s="1" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5306,7 +5321,7 @@
       <c r="C130" t="n">
         <v>176</v>
       </c>
-      <c r="D130" s="1" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5345,7 +5360,7 @@
       <c r="C131" t="n">
         <v>383</v>
       </c>
-      <c r="D131" s="1" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5384,7 +5399,7 @@
       <c r="C132" t="n">
         <v>687</v>
       </c>
-      <c r="D132" s="1" t="n">
+      <c r="D132" t="n">
         <v>100</v>
       </c>
       <c r="E132" t="n">
@@ -5421,7 +5436,7 @@
       <c r="C133" t="n">
         <v>638</v>
       </c>
-      <c r="D133" s="1" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5460,7 +5475,7 @@
       <c r="C134" t="n">
         <v>810</v>
       </c>
-      <c r="D134" s="1" t="n">
+      <c r="D134" t="n">
         <v>100</v>
       </c>
       <c r="E134" t="n">
@@ -5497,7 +5512,7 @@
       <c r="C135" t="n">
         <v>322</v>
       </c>
-      <c r="D135" s="1" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5536,7 +5551,7 @@
       <c r="C136" t="n">
         <v>538</v>
       </c>
-      <c r="D136" s="1" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5575,7 +5590,7 @@
       <c r="C137" t="n">
         <v>178</v>
       </c>
-      <c r="D137" s="1" t="n">
+      <c r="D137" t="n">
         <v>100</v>
       </c>
       <c r="E137" t="n">
@@ -5612,7 +5627,7 @@
       <c r="C138" t="n">
         <v>756</v>
       </c>
-      <c r="D138" s="1" t="n">
+      <c r="D138" t="n">
         <v>100</v>
       </c>
       <c r="E138" t="n">
@@ -5649,7 +5664,7 @@
       <c r="C139" t="n">
         <v>343</v>
       </c>
-      <c r="D139" s="1" t="n">
+      <c r="D139" t="n">
         <v>100</v>
       </c>
       <c r="E139" t="n">
@@ -5686,7 +5701,7 @@
       <c r="C140" t="n">
         <v>152</v>
       </c>
-      <c r="D140" s="1" t="n">
+      <c r="D140" t="n">
         <v>90</v>
       </c>
       <c r="E140" t="n">
@@ -5723,7 +5738,7 @@
       <c r="C141" t="n">
         <v>578</v>
       </c>
-      <c r="D141" s="1" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5762,7 +5777,7 @@
       <c r="C142" t="n">
         <v>238</v>
       </c>
-      <c r="D142" s="1" t="n">
+      <c r="D142" t="n">
         <v>80</v>
       </c>
       <c r="E142" t="n">
@@ -5799,7 +5814,7 @@
       <c r="C143" t="n">
         <v>440</v>
       </c>
-      <c r="D143" s="1" t="n">
+      <c r="D143" t="n">
         <v>100</v>
       </c>
       <c r="E143" t="n">
@@ -5836,7 +5851,7 @@
       <c r="C144" t="n">
         <v>242</v>
       </c>
-      <c r="D144" s="1" t="n">
+      <c r="D144" t="n">
         <v>100</v>
       </c>
       <c r="E144" t="n">
@@ -5873,7 +5888,7 @@
       <c r="C145" t="n">
         <v>306</v>
       </c>
-      <c r="D145" s="1" t="n">
+      <c r="D145" t="n">
         <v>95</v>
       </c>
       <c r="E145" t="n">
@@ -5910,7 +5925,7 @@
       <c r="C146" t="n">
         <v>174</v>
       </c>
-      <c r="D146" s="1" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -5949,7 +5964,7 @@
       <c r="C147" t="n">
         <v>15</v>
       </c>
-      <c r="D147" s="1" t="n">
+      <c r="D147" t="n">
         <v>95</v>
       </c>
       <c r="E147" t="n">
@@ -5986,7 +6001,7 @@
       <c r="C148" t="n">
         <v>663</v>
       </c>
-      <c r="D148" s="1" t="n">
+      <c r="D148" t="n">
         <v>100</v>
       </c>
       <c r="E148" t="n">
@@ -6023,7 +6038,7 @@
       <c r="C149" t="n">
         <v>399</v>
       </c>
-      <c r="D149" s="1" t="n">
+      <c r="D149" t="n">
         <v>100</v>
       </c>
       <c r="E149" t="n">
@@ -6060,7 +6075,7 @@
       <c r="C150" t="n">
         <v>464</v>
       </c>
-      <c r="D150" s="1" t="n">
+      <c r="D150" t="n">
         <v>50</v>
       </c>
       <c r="E150" t="n">
@@ -6097,7 +6112,7 @@
       <c r="C151" t="n">
         <v>605</v>
       </c>
-      <c r="D151" s="1" t="n">
+      <c r="D151" t="n">
         <v>100</v>
       </c>
       <c r="E151" t="n">
@@ -6134,7 +6149,7 @@
       <c r="C152" t="n">
         <v>777</v>
       </c>
-      <c r="D152" s="1" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -6173,7 +6188,7 @@
       <c r="C153" t="n">
         <v>455</v>
       </c>
-      <c r="D153" s="1" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -6212,7 +6227,7 @@
       <c r="C154" t="n">
         <v>111</v>
       </c>
-      <c r="D154" s="1" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -6251,7 +6266,7 @@
       <c r="C155" t="n">
         <v>432</v>
       </c>
-      <c r="D155" s="1" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -6290,7 +6305,7 @@
       <c r="C156" t="n">
         <v>194</v>
       </c>
-      <c r="D156" s="1" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -6329,7 +6344,7 @@
       <c r="C157" t="n">
         <v>197</v>
       </c>
-      <c r="D157" s="1" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -6368,7 +6383,7 @@
       <c r="C158" t="n">
         <v>652</v>
       </c>
-      <c r="D158" s="1" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -6407,7 +6422,7 @@
       <c r="C159" t="n">
         <v>591</v>
       </c>
-      <c r="D159" s="1" t="n">
+      <c r="D159" t="n">
         <v>95</v>
       </c>
       <c r="E159" t="n">
@@ -6444,7 +6459,7 @@
       <c r="C160" t="n">
         <v>91</v>
       </c>
-      <c r="D160" s="1" t="n">
+      <c r="D160" t="n">
         <v>100</v>
       </c>
       <c r="E160" t="n">
@@ -6481,7 +6496,7 @@
       <c r="C161" t="n">
         <v>50</v>
       </c>
-      <c r="D161" s="1" t="n">
+      <c r="D161" t="n">
         <v>100</v>
       </c>
       <c r="E161" t="n">
@@ -6518,7 +6533,7 @@
       <c r="C162" t="n">
         <v>574</v>
       </c>
-      <c r="D162" s="1" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -6557,7 +6572,7 @@
       <c r="C163" t="n">
         <v>435</v>
       </c>
-      <c r="D163" s="1" t="n">
+      <c r="D163" t="n">
         <v>100</v>
       </c>
       <c r="E163" t="n">
@@ -6594,7 +6609,7 @@
       <c r="C164" t="n">
         <v>827</v>
       </c>
-      <c r="D164" s="1" t="n">
+      <c r="D164" t="n">
         <v>100</v>
       </c>
       <c r="E164" t="n">
@@ -6631,7 +6646,7 @@
       <c r="C165" t="n">
         <v>291</v>
       </c>
-      <c r="D165" s="1" t="n">
+      <c r="D165" t="n">
         <v>100</v>
       </c>
       <c r="E165" t="n">
@@ -6668,7 +6683,7 @@
       <c r="C166" t="n">
         <v>146</v>
       </c>
-      <c r="D166" s="1" t="n">
+      <c r="D166" t="n">
         <v>100</v>
       </c>
       <c r="E166" t="n">
@@ -6705,7 +6720,7 @@
       <c r="C167" t="n">
         <v>867</v>
       </c>
-      <c r="D167" s="1" t="n">
+      <c r="D167" t="n">
         <v>100</v>
       </c>
       <c r="E167" t="n">
@@ -6742,7 +6757,7 @@
       <c r="C168" t="n">
         <v>353</v>
       </c>
-      <c r="D168" s="1" t="n">
+      <c r="D168" t="n">
         <v>100</v>
       </c>
       <c r="E168" t="n">
@@ -6776,12 +6791,22 @@
           <t>破灭之愿</t>
         </is>
       </c>
-      <c r="D169" s="1" t="n">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
         <v>100</v>
       </c>
       <c r="E169" t="n">
         <v>140</v>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G169" t="n">
         <v>0</v>
       </c>
@@ -6810,7 +6835,7 @@
       <c r="C170" t="n">
         <v>38</v>
       </c>
-      <c r="D170" s="1" t="n">
+      <c r="D170" t="n">
         <v>100</v>
       </c>
       <c r="E170" t="n">
@@ -6847,7 +6872,7 @@
       <c r="C171" t="n">
         <v>458</v>
       </c>
-      <c r="D171" s="1" t="n">
+      <c r="D171" t="n">
         <v>90</v>
       </c>
       <c r="E171" t="n">
@@ -6884,7 +6909,7 @@
       <c r="C172" t="n">
         <v>742</v>
       </c>
-      <c r="D172" s="1" t="n">
+      <c r="D172" t="n">
         <v>100</v>
       </c>
       <c r="E172" t="n">
@@ -6921,7 +6946,7 @@
       <c r="C173" t="n">
         <v>24</v>
       </c>
-      <c r="D173" s="1" t="n">
+      <c r="D173" t="n">
         <v>100</v>
       </c>
       <c r="E173" t="n">
@@ -6958,7 +6983,7 @@
       <c r="C174" t="n">
         <v>892</v>
       </c>
-      <c r="D174" s="1" t="n">
+      <c r="D174" t="n">
         <v>100</v>
       </c>
       <c r="E174" t="n">
@@ -6995,7 +7020,7 @@
       <c r="C175" t="n">
         <v>3</v>
       </c>
-      <c r="D175" s="1" t="n">
+      <c r="D175" t="n">
         <v>85</v>
       </c>
       <c r="E175" t="n">
@@ -7032,7 +7057,7 @@
       <c r="C176" t="n">
         <v>104</v>
       </c>
-      <c r="D176" s="1" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -7071,7 +7096,7 @@
       <c r="C177" t="n">
         <v>434</v>
       </c>
-      <c r="D177" s="1" t="n">
+      <c r="D177" t="n">
         <v>90</v>
       </c>
       <c r="E177" t="n">
@@ -7108,7 +7133,7 @@
       <c r="C178" t="n">
         <v>620</v>
       </c>
-      <c r="D178" s="1" t="n">
+      <c r="D178" t="n">
         <v>100</v>
       </c>
       <c r="E178" t="n">
@@ -7145,7 +7170,7 @@
       <c r="C179" t="n">
         <v>225</v>
       </c>
-      <c r="D179" s="1" t="n">
+      <c r="D179" t="n">
         <v>100</v>
       </c>
       <c r="E179" t="n">
@@ -7182,7 +7207,7 @@
       <c r="C180" t="n">
         <v>913</v>
       </c>
-      <c r="D180" s="1" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -7221,7 +7246,7 @@
       <c r="C181" t="n">
         <v>337</v>
       </c>
-      <c r="D181" s="1" t="n">
+      <c r="D181" t="n">
         <v>100</v>
       </c>
       <c r="E181" t="n">
@@ -7258,7 +7283,7 @@
       <c r="C182" t="n">
         <v>349</v>
       </c>
-      <c r="D182" s="1" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -7297,7 +7322,7 @@
       <c r="C183" t="n">
         <v>751</v>
       </c>
-      <c r="D183" s="1" t="n">
+      <c r="D183" t="n">
         <v>100</v>
       </c>
       <c r="E183" t="n">
@@ -7334,7 +7359,7 @@
       <c r="C184" t="n">
         <v>692</v>
       </c>
-      <c r="D184" s="1" t="n">
+      <c r="D184" t="n">
         <v>100</v>
       </c>
       <c r="E184" t="n">
@@ -7371,7 +7396,7 @@
       <c r="C185" t="n">
         <v>406</v>
       </c>
-      <c r="D185" s="1" t="n">
+      <c r="D185" t="n">
         <v>100</v>
       </c>
       <c r="E185" t="n">
@@ -7408,7 +7433,7 @@
       <c r="C186" t="n">
         <v>82</v>
       </c>
-      <c r="D186" s="1" t="n">
+      <c r="D186" t="n">
         <v>100</v>
       </c>
       <c r="E186" t="n">
@@ -7445,7 +7470,7 @@
       <c r="C187" t="n">
         <v>407</v>
       </c>
-      <c r="D187" s="1" t="n">
+      <c r="D187" t="n">
         <v>75</v>
       </c>
       <c r="E187" t="n">
@@ -7482,7 +7507,7 @@
       <c r="C188" t="n">
         <v>525</v>
       </c>
-      <c r="D188" s="1" t="n">
+      <c r="D188" t="n">
         <v>90</v>
       </c>
       <c r="E188" t="n">
@@ -7519,7 +7544,7 @@
       <c r="C189" t="n">
         <v>577</v>
       </c>
-      <c r="D189" s="1" t="n">
+      <c r="D189" t="n">
         <v>100</v>
       </c>
       <c r="E189" t="n">
@@ -7556,7 +7581,7 @@
       <c r="C190" t="n">
         <v>409</v>
       </c>
-      <c r="D190" s="1" t="n">
+      <c r="D190" t="n">
         <v>100</v>
       </c>
       <c r="E190" t="n">
@@ -7593,7 +7618,7 @@
       <c r="C191" t="n">
         <v>138</v>
       </c>
-      <c r="D191" s="1" t="n">
+      <c r="D191" t="n">
         <v>100</v>
       </c>
       <c r="E191" t="n">
@@ -7630,7 +7655,7 @@
       <c r="C192" t="n">
         <v>65</v>
       </c>
-      <c r="D192" s="1" t="n">
+      <c r="D192" t="n">
         <v>100</v>
       </c>
       <c r="E192" t="n">
@@ -7667,7 +7692,7 @@
       <c r="C193" t="n">
         <v>529</v>
       </c>
-      <c r="D193" s="1" t="n">
+      <c r="D193" t="n">
         <v>95</v>
       </c>
       <c r="E193" t="n">
@@ -7704,7 +7729,7 @@
       <c r="C194" t="n">
         <v>778</v>
       </c>
-      <c r="D194" s="1" t="n">
+      <c r="D194" t="n">
         <v>100</v>
       </c>
       <c r="E194" t="n">
@@ -7741,7 +7766,7 @@
       <c r="C195" t="n">
         <v>530</v>
       </c>
-      <c r="D195" s="1" t="n">
+      <c r="D195" t="n">
         <v>90</v>
       </c>
       <c r="E195" t="n">
@@ -7778,7 +7803,7 @@
       <c r="C196" t="n">
         <v>814</v>
       </c>
-      <c r="D196" s="1" t="n">
+      <c r="D196" t="n">
         <v>90</v>
       </c>
       <c r="E196" t="n">
@@ -7815,7 +7840,7 @@
       <c r="C197" t="n">
         <v>744</v>
       </c>
-      <c r="D197" s="1" t="n">
+      <c r="D197" t="n">
         <v>100</v>
       </c>
       <c r="E197" t="n">
@@ -7852,7 +7877,7 @@
       <c r="C198" t="n">
         <v>223</v>
       </c>
-      <c r="D198" s="1" t="n">
+      <c r="D198" t="n">
         <v>50</v>
       </c>
       <c r="E198" t="n">
@@ -7889,7 +7914,7 @@
       <c r="C199" t="n">
         <v>414</v>
       </c>
-      <c r="D199" s="1" t="n">
+      <c r="D199" t="n">
         <v>100</v>
       </c>
       <c r="E199" t="n">
@@ -7926,7 +7951,7 @@
       <c r="C200" t="n">
         <v>89</v>
       </c>
-      <c r="D200" s="1" t="n">
+      <c r="D200" t="n">
         <v>100</v>
       </c>
       <c r="E200" t="n">
@@ -7963,7 +7988,7 @@
       <c r="C201" t="n">
         <v>598</v>
       </c>
-      <c r="D201" s="1" t="n">
+      <c r="D201" t="n">
         <v>100</v>
       </c>
       <c r="E201" t="n">
@@ -8000,7 +8025,7 @@
       <c r="C202" t="n">
         <v>826</v>
       </c>
-      <c r="D202" s="1" t="n">
+      <c r="D202" t="n">
         <v>100</v>
       </c>
       <c r="E202" t="n">
@@ -8037,7 +8062,7 @@
       <c r="C203" t="n">
         <v>121</v>
       </c>
-      <c r="D203" s="1" t="n">
+      <c r="D203" t="n">
         <v>75</v>
       </c>
       <c r="E203" t="n">
@@ -8074,7 +8099,7 @@
       <c r="C204" t="n">
         <v>604</v>
       </c>
-      <c r="D204" s="1" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -8113,7 +8138,7 @@
       <c r="C205" t="n">
         <v>582</v>
       </c>
-      <c r="D205" s="1" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -8152,7 +8177,7 @@
       <c r="C206" t="n">
         <v>879</v>
       </c>
-      <c r="D206" s="1" t="n">
+      <c r="D206" t="n">
         <v>100</v>
       </c>
       <c r="E206" t="n">
@@ -8189,7 +8214,7 @@
       <c r="C207" t="n">
         <v>905</v>
       </c>
-      <c r="D207" s="1" t="n">
+      <c r="D207" t="n">
         <v>100</v>
       </c>
       <c r="E207" t="n">
@@ -8226,7 +8251,7 @@
       <c r="C208" t="n">
         <v>527</v>
       </c>
-      <c r="D208" s="1" t="n">
+      <c r="D208" t="n">
         <v>95</v>
       </c>
       <c r="E208" t="n">
@@ -8263,7 +8288,7 @@
       <c r="C209" t="n">
         <v>373</v>
       </c>
-      <c r="D209" s="1" t="n">
+      <c r="D209" t="n">
         <v>100</v>
       </c>
       <c r="E209" t="n">
@@ -8300,7 +8325,7 @@
       <c r="C210" t="n">
         <v>52</v>
       </c>
-      <c r="D210" s="1" t="n">
+      <c r="D210" t="n">
         <v>100</v>
       </c>
       <c r="E210" t="n">
@@ -8337,7 +8362,7 @@
       <c r="C211" t="n">
         <v>227</v>
       </c>
-      <c r="D211" s="1" t="n">
+      <c r="D211" t="n">
         <v>100</v>
       </c>
       <c r="E211" t="n">
@@ -8374,7 +8399,7 @@
       <c r="C212" t="n">
         <v>203</v>
       </c>
-      <c r="D212" s="1" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -8413,7 +8438,7 @@
       <c r="C213" t="n">
         <v>412</v>
       </c>
-      <c r="D213" s="1" t="n">
+      <c r="D213" t="n">
         <v>100</v>
       </c>
       <c r="E213" t="n">
@@ -8450,7 +8475,7 @@
       <c r="C214" t="n">
         <v>494</v>
       </c>
-      <c r="D214" s="1" t="n">
+      <c r="D214" t="n">
         <v>100</v>
       </c>
       <c r="E214" t="n">
@@ -8487,7 +8512,7 @@
       <c r="C215" t="n">
         <v>840</v>
       </c>
-      <c r="D215" s="1" t="n">
+      <c r="D215" t="n">
         <v>100</v>
       </c>
       <c r="E215" t="n">
@@ -8524,7 +8549,7 @@
       <c r="C216" t="n">
         <v>795</v>
       </c>
-      <c r="D216" s="1" t="n">
+      <c r="D216" t="n">
         <v>90</v>
       </c>
       <c r="E216" t="n">
@@ -8561,7 +8586,7 @@
       <c r="C217" t="n">
         <v>797</v>
       </c>
-      <c r="D217" s="1" t="n">
+      <c r="D217" t="n">
         <v>100</v>
       </c>
       <c r="E217" t="n">
@@ -8598,7 +8623,7 @@
       <c r="C218" t="n">
         <v>153</v>
       </c>
-      <c r="D218" s="1" t="n">
+      <c r="D218" t="n">
         <v>100</v>
       </c>
       <c r="E218" t="n">
@@ -8635,7 +8660,7 @@
       <c r="C219" t="n">
         <v>326</v>
       </c>
-      <c r="D219" s="1" t="n">
+      <c r="D219" t="n">
         <v>100</v>
       </c>
       <c r="E219" t="n">
@@ -8672,7 +8697,7 @@
       <c r="C220" t="n">
         <v>702</v>
       </c>
-      <c r="D220" s="1" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -8711,7 +8736,7 @@
       <c r="C221" t="n">
         <v>245</v>
       </c>
-      <c r="D221" s="1" t="n">
+      <c r="D221" t="n">
         <v>100</v>
       </c>
       <c r="E221" t="n">
@@ -8748,7 +8773,7 @@
       <c r="C222" t="n">
         <v>263</v>
       </c>
-      <c r="D222" s="1" t="n">
+      <c r="D222" t="n">
         <v>100</v>
       </c>
       <c r="E222" t="n">
@@ -8785,7 +8810,7 @@
       <c r="C223" t="n">
         <v>587</v>
       </c>
-      <c r="D223" s="1" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -8824,7 +8849,7 @@
       <c r="C224" t="n">
         <v>584</v>
       </c>
-      <c r="D224" s="1" t="n">
+      <c r="D224" t="n">
         <v>100</v>
       </c>
       <c r="E224" t="n">
@@ -8861,7 +8886,7 @@
       <c r="C225" t="n">
         <v>252</v>
       </c>
-      <c r="D225" s="1" t="n">
+      <c r="D225" t="n">
         <v>100</v>
       </c>
       <c r="E225" t="n">
@@ -8898,7 +8923,7 @@
       <c r="C226" t="n">
         <v>313</v>
       </c>
-      <c r="D226" s="1" t="n">
+      <c r="D226" t="n">
         <v>100</v>
       </c>
       <c r="E226" t="n">
@@ -8935,7 +8960,7 @@
       <c r="C227" t="n">
         <v>793</v>
       </c>
-      <c r="D227" s="1" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -8974,7 +8999,7 @@
       <c r="C228" t="n">
         <v>206</v>
       </c>
-      <c r="D228" s="1" t="n">
+      <c r="D228" t="n">
         <v>100</v>
       </c>
       <c r="E228" t="n">
@@ -9011,7 +9036,7 @@
       <c r="C229" t="n">
         <v>297</v>
       </c>
-      <c r="D229" s="1" t="n">
+      <c r="D229" t="n">
         <v>100</v>
       </c>
       <c r="E229" t="n">
@@ -9048,7 +9073,7 @@
       <c r="C230" t="n">
         <v>364</v>
       </c>
-      <c r="D230" s="1" t="n">
+      <c r="D230" t="n">
         <v>100</v>
       </c>
       <c r="E230" t="n">
@@ -9085,7 +9110,7 @@
       <c r="C231" t="n">
         <v>185</v>
       </c>
-      <c r="D231" s="1" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -9124,7 +9149,7 @@
       <c r="C232" t="n">
         <v>565</v>
       </c>
-      <c r="D232" s="1" t="n">
+      <c r="D232" t="n">
         <v>100</v>
       </c>
       <c r="E232" t="n">
@@ -9161,7 +9186,7 @@
       <c r="C233" t="n">
         <v>907</v>
       </c>
-      <c r="D233" s="1" t="n">
+      <c r="D233" t="n">
         <v>100</v>
       </c>
       <c r="E233" t="n">
@@ -9198,7 +9223,7 @@
       <c r="C234" t="n">
         <v>552</v>
       </c>
-      <c r="D234" s="1" t="n">
+      <c r="D234" t="n">
         <v>100</v>
       </c>
       <c r="E234" t="n">
@@ -9235,7 +9260,7 @@
       <c r="C235" t="n">
         <v>822</v>
       </c>
-      <c r="D235" s="1" t="n">
+      <c r="D235" t="n">
         <v>100</v>
       </c>
       <c r="E235" t="n">
@@ -9272,7 +9297,7 @@
       <c r="C236" t="n">
         <v>868</v>
       </c>
-      <c r="D236" s="1" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -9311,7 +9336,7 @@
       <c r="C237" t="n">
         <v>126</v>
       </c>
-      <c r="D237" s="1" t="n">
+      <c r="D237" t="n">
         <v>85</v>
       </c>
       <c r="E237" t="n">
@@ -9348,7 +9373,7 @@
       <c r="C238" t="n">
         <v>424</v>
       </c>
-      <c r="D238" s="1" t="n">
+      <c r="D238" t="n">
         <v>95</v>
       </c>
       <c r="E238" t="n">
@@ -9385,7 +9410,7 @@
       <c r="C239" t="n">
         <v>680</v>
       </c>
-      <c r="D239" s="1" t="n">
+      <c r="D239" t="n">
         <v>100</v>
       </c>
       <c r="E239" t="n">
@@ -9422,7 +9447,7 @@
       <c r="C240" t="n">
         <v>7</v>
       </c>
-      <c r="D240" s="1" t="n">
+      <c r="D240" t="n">
         <v>100</v>
       </c>
       <c r="E240" t="n">
@@ -9459,7 +9484,7 @@
       <c r="C241" t="n">
         <v>83</v>
       </c>
-      <c r="D241" s="1" t="n">
+      <c r="D241" t="n">
         <v>85</v>
       </c>
       <c r="E241" t="n">
@@ -9496,7 +9521,7 @@
       <c r="C242" t="n">
         <v>660</v>
       </c>
-      <c r="D242" s="1" t="n">
+      <c r="D242" t="n">
         <v>100</v>
       </c>
       <c r="E242" t="n">
@@ -9533,7 +9558,7 @@
       <c r="C243" t="n">
         <v>90</v>
       </c>
-      <c r="D243" s="1" t="n">
+      <c r="D243" t="n">
         <v>30</v>
       </c>
       <c r="E243" t="n">
@@ -9570,7 +9595,7 @@
       <c r="C244" t="n">
         <v>481</v>
       </c>
-      <c r="D244" s="1" t="n">
+      <c r="D244" t="n">
         <v>100</v>
       </c>
       <c r="E244" t="n">
@@ -9607,7 +9632,7 @@
       <c r="C245" t="n">
         <v>488</v>
       </c>
-      <c r="D245" s="1" t="n">
+      <c r="D245" t="n">
         <v>100</v>
       </c>
       <c r="E245" t="n">
@@ -9644,7 +9669,7 @@
       <c r="C246" t="n">
         <v>172</v>
       </c>
-      <c r="D246" s="1" t="n">
+      <c r="D246" t="n">
         <v>100</v>
       </c>
       <c r="E246" t="n">
@@ -9681,7 +9706,7 @@
       <c r="C247" t="n">
         <v>53</v>
       </c>
-      <c r="D247" s="1" t="n">
+      <c r="D247" t="n">
         <v>100</v>
       </c>
       <c r="E247" t="n">
@@ -9718,7 +9743,7 @@
       <c r="C248" t="n">
         <v>394</v>
       </c>
-      <c r="D248" s="1" t="n">
+      <c r="D248" t="n">
         <v>100</v>
       </c>
       <c r="E248" t="n">
@@ -9755,7 +9780,7 @@
       <c r="C249" t="n">
         <v>148</v>
       </c>
-      <c r="D249" s="1" t="n">
+      <c r="D249" t="n">
         <v>100</v>
       </c>
       <c r="E249" t="n">
@@ -9792,7 +9817,7 @@
       <c r="C250" t="n">
         <v>430</v>
       </c>
-      <c r="D250" s="1" t="n">
+      <c r="D250" t="n">
         <v>100</v>
       </c>
       <c r="E250" t="n">
@@ -9829,7 +9854,7 @@
       <c r="C251" t="n">
         <v>260</v>
       </c>
-      <c r="D251" s="1" t="n">
+      <c r="D251" t="n">
         <v>100</v>
       </c>
       <c r="E251" t="n">
@@ -9866,7 +9891,7 @@
       <c r="C252" t="n">
         <v>705</v>
       </c>
-      <c r="D252" s="1" t="n">
+      <c r="D252" t="n">
         <v>90</v>
       </c>
       <c r="E252" t="n">
@@ -9903,7 +9928,7 @@
       <c r="C253" t="n">
         <v>374</v>
       </c>
-      <c r="D253" s="1" t="n">
+      <c r="D253" t="n">
         <v>100</v>
       </c>
       <c r="E253" t="n">
@@ -9940,7 +9965,7 @@
       <c r="C254" t="n">
         <v>812</v>
       </c>
-      <c r="D254" s="1" t="n">
+      <c r="D254" t="n">
         <v>100</v>
       </c>
       <c r="E254" t="n">
@@ -9977,7 +10002,7 @@
       <c r="C255" t="n">
         <v>731</v>
       </c>
-      <c r="D255" s="1" t="n">
+      <c r="D255" t="n">
         <v>95</v>
       </c>
       <c r="E255" t="n">
@@ -10014,7 +10039,7 @@
       <c r="C256" t="n">
         <v>666</v>
       </c>
-      <c r="D256" s="1" t="inlineStr">
+      <c r="D256" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -10053,7 +10078,7 @@
       <c r="C257" t="n">
         <v>579</v>
       </c>
-      <c r="D257" s="1" t="inlineStr">
+      <c r="D257" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -10092,7 +10117,7 @@
       <c r="C258" t="n">
         <v>870</v>
       </c>
-      <c r="D258" s="1" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -10131,7 +10156,7 @@
       <c r="C259" t="n">
         <v>19</v>
       </c>
-      <c r="D259" s="1" t="n">
+      <c r="D259" t="n">
         <v>95</v>
       </c>
       <c r="E259" t="n">
@@ -10168,7 +10193,7 @@
       <c r="C260" t="n">
         <v>560</v>
       </c>
-      <c r="D260" s="1" t="n">
+      <c r="D260" t="n">
         <v>95</v>
       </c>
       <c r="E260" t="n">
@@ -10177,6 +10202,11 @@
       <c r="F260" t="n">
         <v>10</v>
       </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="H260" t="inlineStr">
         <is>
           <t>Physical</t>
@@ -10202,7 +10232,7 @@
       <c r="C261" t="n">
         <v>411</v>
       </c>
-      <c r="D261" s="1" t="n">
+      <c r="D261" t="n">
         <v>70</v>
       </c>
       <c r="E261" t="n">
@@ -10239,7 +10269,7 @@
       <c r="C262" t="n">
         <v>116</v>
       </c>
-      <c r="D262" s="1" t="inlineStr">
+      <c r="D262" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -10278,7 +10308,7 @@
       <c r="C263" t="n">
         <v>264</v>
       </c>
-      <c r="D263" s="1" t="n">
+      <c r="D263" t="n">
         <v>100</v>
       </c>
       <c r="E263" t="n">
@@ -10315,7 +10345,7 @@
       <c r="C264" t="n">
         <v>266</v>
       </c>
-      <c r="D264" s="1" t="inlineStr">
+      <c r="D264" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -10354,7 +10384,7 @@
       <c r="C265" t="n">
         <v>395</v>
       </c>
-      <c r="D265" s="1" t="n">
+      <c r="D265" t="n">
         <v>100</v>
       </c>
       <c r="E265" t="n">
@@ -10391,7 +10421,7 @@
       <c r="C266" t="n">
         <v>193</v>
       </c>
-      <c r="D266" s="1" t="inlineStr">
+      <c r="D266" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -10430,7 +10460,7 @@
       <c r="C267" t="n">
         <v>571</v>
       </c>
-      <c r="D267" s="1" t="n">
+      <c r="D267" t="n">
         <v>100</v>
       </c>
       <c r="E267" t="n">
@@ -10467,7 +10497,7 @@
       <c r="C268" t="n">
         <v>492</v>
       </c>
-      <c r="D268" s="1" t="n">
+      <c r="D268" t="n">
         <v>100</v>
       </c>
       <c r="E268" t="n">
@@ -10504,7 +10534,7 @@
       <c r="C269" t="n">
         <v>573</v>
       </c>
-      <c r="D269" s="1" t="n">
+      <c r="D269" t="n">
         <v>100</v>
       </c>
       <c r="E269" t="n">
@@ -10541,7 +10571,7 @@
       <c r="C270" t="n">
         <v>553</v>
       </c>
-      <c r="D270" s="1" t="n">
+      <c r="D270" t="n">
         <v>90</v>
       </c>
       <c r="E270" t="n">
@@ -10578,7 +10608,7 @@
       <c r="C271" t="n">
         <v>821</v>
       </c>
-      <c r="D271" s="1" t="n">
+      <c r="D271" t="n">
         <v>100</v>
       </c>
       <c r="E271" t="n">
@@ -10615,7 +10645,7 @@
       <c r="C272" t="n">
         <v>739</v>
       </c>
-      <c r="D272" s="1" t="n">
+      <c r="D272" t="n">
         <v>90</v>
       </c>
       <c r="E272" t="n">
@@ -10652,7 +10682,7 @@
       <c r="C273" t="n">
         <v>338</v>
       </c>
-      <c r="D273" s="1" t="n">
+      <c r="D273" t="n">
         <v>90</v>
       </c>
       <c r="E273" t="n">
@@ -10689,7 +10719,7 @@
       <c r="C274" t="n">
         <v>524</v>
       </c>
-      <c r="D274" s="1" t="n">
+      <c r="D274" t="n">
         <v>90</v>
       </c>
       <c r="E274" t="n">
@@ -10726,7 +10756,7 @@
       <c r="C275" t="n">
         <v>31</v>
       </c>
-      <c r="D275" s="1" t="n">
+      <c r="D275" t="n">
         <v>85</v>
       </c>
       <c r="E275" t="n">
@@ -10763,7 +10793,7 @@
       <c r="C276" t="n">
         <v>154</v>
       </c>
-      <c r="D276" s="1" t="n">
+      <c r="D276" t="n">
         <v>80</v>
       </c>
       <c r="E276" t="n">
@@ -10800,7 +10830,7 @@
       <c r="C277" t="n">
         <v>559</v>
       </c>
-      <c r="D277" s="1" t="n">
+      <c r="D277" t="n">
         <v>100</v>
       </c>
       <c r="E277" t="n">
@@ -10837,7 +10867,7 @@
       <c r="C278" t="n">
         <v>558</v>
       </c>
-      <c r="D278" s="1" t="n">
+      <c r="D278" t="n">
         <v>100</v>
       </c>
       <c r="E278" t="n">
@@ -10874,7 +10904,7 @@
       <c r="C279" t="n">
         <v>248</v>
       </c>
-      <c r="D279" s="1" t="n">
+      <c r="D279" t="n">
         <v>100</v>
       </c>
       <c r="E279" t="n">
@@ -10908,12 +10938,22 @@
           <t>预知未来</t>
         </is>
       </c>
-      <c r="D280" s="1" t="n">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
         <v>100</v>
       </c>
       <c r="E280" t="n">
         <v>120</v>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
       <c r="G280" t="n">
         <v>0</v>
       </c>
@@ -10942,7 +10982,7 @@
       <c r="C281" t="n">
         <v>380</v>
       </c>
-      <c r="D281" s="1" t="n">
+      <c r="D281" t="n">
         <v>100</v>
       </c>
       <c r="E281" t="n">
@@ -10979,7 +11019,7 @@
       <c r="C282" t="n">
         <v>544</v>
       </c>
-      <c r="D282" s="1" t="n">
+      <c r="D282" t="n">
         <v>85</v>
       </c>
       <c r="E282" t="n">
@@ -11016,7 +11056,7 @@
       <c r="C283" t="n">
         <v>674</v>
       </c>
-      <c r="D283" s="1" t="inlineStr">
+      <c r="D283" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11055,7 +11095,7 @@
       <c r="C284" t="n">
         <v>703</v>
       </c>
-      <c r="D284" s="1" t="inlineStr">
+      <c r="D284" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11094,7 +11134,7 @@
       <c r="C285" t="n">
         <v>601</v>
       </c>
-      <c r="D285" s="1" t="inlineStr">
+      <c r="D285" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11133,7 +11173,7 @@
       <c r="C286" t="n">
         <v>202</v>
       </c>
-      <c r="D286" s="1" t="n">
+      <c r="D286" t="n">
         <v>100</v>
       </c>
       <c r="E286" t="n">
@@ -11170,7 +11210,7 @@
       <c r="C287" t="n">
         <v>416</v>
       </c>
-      <c r="D287" s="1" t="n">
+      <c r="D287" t="n">
         <v>90</v>
       </c>
       <c r="E287" t="n">
@@ -11207,7 +11247,7 @@
       <c r="C288" t="n">
         <v>893</v>
       </c>
-      <c r="D288" s="1" t="n">
+      <c r="D288" t="n">
         <v>100</v>
       </c>
       <c r="E288" t="n">
@@ -11244,7 +11284,7 @@
       <c r="C289" t="n">
         <v>646</v>
       </c>
-      <c r="D289" s="1" t="inlineStr">
+      <c r="D289" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11283,7 +11323,7 @@
       <c r="C290" t="n">
         <v>824</v>
       </c>
-      <c r="D290" s="1" t="n">
+      <c r="D290" t="n">
         <v>100</v>
       </c>
       <c r="E290" t="n">
@@ -11320,7 +11360,7 @@
       <c r="C291" t="n">
         <v>549</v>
       </c>
-      <c r="D291" s="1" t="n">
+      <c r="D291" t="n">
         <v>95</v>
       </c>
       <c r="E291" t="n">
@@ -11357,7 +11397,7 @@
       <c r="C292" t="n">
         <v>862</v>
       </c>
-      <c r="D292" s="1" t="n">
+      <c r="D292" t="n">
         <v>100</v>
       </c>
       <c r="E292" t="n">
@@ -11394,7 +11434,7 @@
       <c r="C293" t="n">
         <v>137</v>
       </c>
-      <c r="D293" s="1" t="n">
+      <c r="D293" t="n">
         <v>100</v>
       </c>
       <c r="E293" t="n">
@@ -11431,7 +11471,7 @@
       <c r="C294" t="n">
         <v>736</v>
       </c>
-      <c r="D294" s="1" t="n">
+      <c r="D294" t="n">
         <v>95</v>
       </c>
       <c r="E294" t="n">
@@ -11468,7 +11508,7 @@
       <c r="C295" t="n">
         <v>1000</v>
       </c>
-      <c r="D295" s="1" t="inlineStr">
+      <c r="D295" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11507,7 +11547,7 @@
       <c r="C296" t="n">
         <v>1000</v>
       </c>
-      <c r="D296" s="1" t="inlineStr">
+      <c r="D296" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11546,7 +11586,7 @@
       <c r="C297" t="n">
         <v>1000</v>
       </c>
-      <c r="D297" s="1" t="inlineStr">
+      <c r="D297" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11585,7 +11625,7 @@
       <c r="C298" t="n">
         <v>1000</v>
       </c>
-      <c r="D298" s="1" t="inlineStr">
+      <c r="D298" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11624,7 +11664,7 @@
       <c r="C299" t="n">
         <v>1000</v>
       </c>
-      <c r="D299" s="1" t="inlineStr">
+      <c r="D299" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11663,7 +11703,7 @@
       <c r="C300" t="n">
         <v>1000</v>
       </c>
-      <c r="D300" s="1" t="inlineStr">
+      <c r="D300" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11702,7 +11742,7 @@
       <c r="C301" t="n">
         <v>1000</v>
       </c>
-      <c r="D301" s="1" t="inlineStr">
+      <c r="D301" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11741,7 +11781,7 @@
       <c r="C302" t="n">
         <v>1000</v>
       </c>
-      <c r="D302" s="1" t="inlineStr">
+      <c r="D302" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11780,7 +11820,7 @@
       <c r="C303" t="n">
         <v>1000</v>
       </c>
-      <c r="D303" s="1" t="inlineStr">
+      <c r="D303" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11819,7 +11859,7 @@
       <c r="C304" t="n">
         <v>1000</v>
       </c>
-      <c r="D304" s="1" t="inlineStr">
+      <c r="D304" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11858,7 +11898,7 @@
       <c r="C305" t="n">
         <v>1000</v>
       </c>
-      <c r="D305" s="1" t="inlineStr">
+      <c r="D305" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11897,7 +11937,7 @@
       <c r="C306" t="n">
         <v>1000</v>
       </c>
-      <c r="D306" s="1" t="inlineStr">
+      <c r="D306" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11936,7 +11976,7 @@
       <c r="C307" t="n">
         <v>1000</v>
       </c>
-      <c r="D307" s="1" t="inlineStr">
+      <c r="D307" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -11975,7 +12015,7 @@
       <c r="C308" t="n">
         <v>1000</v>
       </c>
-      <c r="D308" s="1" t="inlineStr">
+      <c r="D308" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12014,7 +12054,7 @@
       <c r="C309" t="n">
         <v>1000</v>
       </c>
-      <c r="D309" s="1" t="inlineStr">
+      <c r="D309" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12053,7 +12093,7 @@
       <c r="C310" t="n">
         <v>1000</v>
       </c>
-      <c r="D310" s="1" t="inlineStr">
+      <c r="D310" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12092,7 +12132,7 @@
       <c r="C311" t="n">
         <v>1000</v>
       </c>
-      <c r="D311" s="1" t="inlineStr">
+      <c r="D311" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12131,7 +12171,7 @@
       <c r="C312" t="n">
         <v>1000</v>
       </c>
-      <c r="D312" s="1" t="inlineStr">
+      <c r="D312" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12170,7 +12210,7 @@
       <c r="C313" t="n">
         <v>1000</v>
       </c>
-      <c r="D313" s="1" t="inlineStr">
+      <c r="D313" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12209,7 +12249,7 @@
       <c r="C314" t="n">
         <v>1000</v>
       </c>
-      <c r="D314" s="1" t="inlineStr">
+      <c r="D314" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12248,7 +12288,7 @@
       <c r="C315" t="n">
         <v>1000</v>
       </c>
-      <c r="D315" s="1" t="inlineStr">
+      <c r="D315" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12287,7 +12327,7 @@
       <c r="C316" t="n">
         <v>1000</v>
       </c>
-      <c r="D316" s="1" t="inlineStr">
+      <c r="D316" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12326,7 +12366,7 @@
       <c r="C317" t="n">
         <v>1000</v>
       </c>
-      <c r="D317" s="1" t="inlineStr">
+      <c r="D317" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12365,7 +12405,7 @@
       <c r="C318" t="n">
         <v>1000</v>
       </c>
-      <c r="D318" s="1" t="inlineStr">
+      <c r="D318" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12404,7 +12444,7 @@
       <c r="C319" t="n">
         <v>1000</v>
       </c>
-      <c r="D319" s="1" t="inlineStr">
+      <c r="D319" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12443,7 +12483,7 @@
       <c r="C320" t="n">
         <v>1000</v>
       </c>
-      <c r="D320" s="1" t="inlineStr">
+      <c r="D320" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12482,7 +12522,7 @@
       <c r="C321" t="n">
         <v>1000</v>
       </c>
-      <c r="D321" s="1" t="inlineStr">
+      <c r="D321" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12521,7 +12561,7 @@
       <c r="C322" t="n">
         <v>1000</v>
       </c>
-      <c r="D322" s="1" t="inlineStr">
+      <c r="D322" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12560,7 +12600,7 @@
       <c r="C323" t="n">
         <v>1000</v>
       </c>
-      <c r="D323" s="1" t="inlineStr">
+      <c r="D323" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12599,7 +12639,7 @@
       <c r="C324" t="n">
         <v>1000</v>
       </c>
-      <c r="D324" s="1" t="inlineStr">
+      <c r="D324" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12638,7 +12678,7 @@
       <c r="C325" t="n">
         <v>1000</v>
       </c>
-      <c r="D325" s="1" t="inlineStr">
+      <c r="D325" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12677,7 +12717,7 @@
       <c r="C326" t="n">
         <v>1000</v>
       </c>
-      <c r="D326" s="1" t="inlineStr">
+      <c r="D326" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12716,7 +12756,7 @@
       <c r="C327" t="n">
         <v>1000</v>
       </c>
-      <c r="D327" s="1" t="inlineStr">
+      <c r="D327" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12755,7 +12795,7 @@
       <c r="C328" t="n">
         <v>320</v>
       </c>
-      <c r="D328" s="1" t="n">
+      <c r="D328" t="n">
         <v>55</v>
       </c>
       <c r="E328" t="n">
@@ -12792,7 +12832,7 @@
       <c r="C329" t="n">
         <v>803</v>
       </c>
-      <c r="D329" s="1" t="n">
+      <c r="D329" t="n">
         <v>100</v>
       </c>
       <c r="E329" t="n">
@@ -12829,7 +12869,7 @@
       <c r="C330" t="n">
         <v>580</v>
       </c>
-      <c r="D330" s="1" t="inlineStr">
+      <c r="D330" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12868,7 +12908,7 @@
       <c r="C331" t="n">
         <v>788</v>
       </c>
-      <c r="D331" s="1" t="n">
+      <c r="D331" t="n">
         <v>100</v>
       </c>
       <c r="E331" t="n">
@@ -12905,7 +12945,7 @@
       <c r="C332" t="n">
         <v>356</v>
       </c>
-      <c r="D332" s="1" t="inlineStr">
+      <c r="D332" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -12944,7 +12984,7 @@
       <c r="C333" t="n">
         <v>45</v>
       </c>
-      <c r="D333" s="1" t="n">
+      <c r="D333" t="n">
         <v>100</v>
       </c>
       <c r="E333" t="n">
@@ -12981,7 +13021,7 @@
       <c r="C334" t="n">
         <v>74</v>
       </c>
-      <c r="D334" s="1" t="inlineStr">
+      <c r="D334" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13020,7 +13060,7 @@
       <c r="C335" t="n">
         <v>288</v>
       </c>
-      <c r="D335" s="1" t="inlineStr">
+      <c r="D335" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13059,7 +13099,7 @@
       <c r="C336" t="n">
         <v>470</v>
       </c>
-      <c r="D336" s="1" t="inlineStr">
+      <c r="D336" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13098,7 +13138,7 @@
       <c r="C337" t="n">
         <v>385</v>
       </c>
-      <c r="D337" s="1" t="inlineStr">
+      <c r="D337" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13137,7 +13177,7 @@
       <c r="C338" t="n">
         <v>12</v>
       </c>
-      <c r="D338" s="1" t="n">
+      <c r="D338" t="n">
         <v>30</v>
       </c>
       <c r="E338" t="n">
@@ -13174,7 +13214,7 @@
       <c r="C339" t="n">
         <v>441</v>
       </c>
-      <c r="D339" s="1" t="n">
+      <c r="D339" t="n">
         <v>80</v>
       </c>
       <c r="E339" t="n">
@@ -13211,7 +13251,7 @@
       <c r="C340" t="n">
         <v>16</v>
       </c>
-      <c r="D340" s="1" t="n">
+      <c r="D340" t="n">
         <v>100</v>
       </c>
       <c r="E340" t="n">
@@ -13248,7 +13288,7 @@
       <c r="C341" t="n">
         <v>258</v>
       </c>
-      <c r="D341" s="1" t="inlineStr">
+      <c r="D341" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13287,7 +13327,7 @@
       <c r="C342" t="n">
         <v>359</v>
       </c>
-      <c r="D342" s="1" t="n">
+      <c r="D342" t="n">
         <v>90</v>
       </c>
       <c r="E342" t="n">
@@ -13324,7 +13364,7 @@
       <c r="C343" t="n">
         <v>603</v>
       </c>
-      <c r="D343" s="1" t="inlineStr">
+      <c r="D343" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13363,7 +13403,7 @@
       <c r="C344" t="n">
         <v>106</v>
       </c>
-      <c r="D344" s="1" t="inlineStr">
+      <c r="D344" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13402,7 +13442,7 @@
       <c r="C345" t="n">
         <v>114</v>
       </c>
-      <c r="D345" s="1" t="inlineStr">
+      <c r="D345" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13441,7 +13481,7 @@
       <c r="C346" t="n">
         <v>29</v>
       </c>
-      <c r="D346" s="1" t="n">
+      <c r="D346" t="n">
         <v>100</v>
       </c>
       <c r="E346" t="n">
@@ -13478,7 +13518,7 @@
       <c r="C347" t="n">
         <v>543</v>
       </c>
-      <c r="D347" s="1" t="n">
+      <c r="D347" t="n">
         <v>100</v>
       </c>
       <c r="E347" t="n">
@@ -13515,7 +13555,7 @@
       <c r="C348" t="n">
         <v>838</v>
       </c>
-      <c r="D348" s="1" t="n">
+      <c r="D348" t="n">
         <v>100</v>
       </c>
       <c r="E348" t="n">
@@ -13552,7 +13592,7 @@
       <c r="C349" t="n">
         <v>457</v>
       </c>
-      <c r="D349" s="1" t="n">
+      <c r="D349" t="n">
         <v>80</v>
       </c>
       <c r="E349" t="n">
@@ -13589,7 +13629,7 @@
       <c r="C350" t="n">
         <v>215</v>
       </c>
-      <c r="D350" s="1" t="inlineStr">
+      <c r="D350" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13628,7 +13668,7 @@
       <c r="C351" t="n">
         <v>377</v>
       </c>
-      <c r="D351" s="1" t="n">
+      <c r="D351" t="n">
         <v>100</v>
       </c>
       <c r="E351" t="n">
@@ -13665,7 +13705,7 @@
       <c r="C352" t="n">
         <v>361</v>
       </c>
-      <c r="D352" s="1" t="inlineStr">
+      <c r="D352" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13704,7 +13744,7 @@
       <c r="C353" t="n">
         <v>456</v>
       </c>
-      <c r="D353" s="1" t="inlineStr">
+      <c r="D353" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13743,7 +13783,7 @@
       <c r="C354" t="n">
         <v>505</v>
       </c>
-      <c r="D354" s="1" t="inlineStr">
+      <c r="D354" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13782,7 +13822,7 @@
       <c r="C355" t="n">
         <v>531</v>
       </c>
-      <c r="D355" s="1" t="n">
+      <c r="D355" t="n">
         <v>100</v>
       </c>
       <c r="E355" t="n">
@@ -13819,7 +13859,7 @@
       <c r="C356" t="n">
         <v>391</v>
       </c>
-      <c r="D356" s="1" t="inlineStr">
+      <c r="D356" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13858,7 +13898,7 @@
       <c r="C357" t="n">
         <v>257</v>
       </c>
-      <c r="D357" s="1" t="n">
+      <c r="D357" t="n">
         <v>90</v>
       </c>
       <c r="E357" t="n">
@@ -13895,7 +13935,7 @@
       <c r="C358" t="n">
         <v>270</v>
       </c>
-      <c r="D358" s="1" t="inlineStr">
+      <c r="D358" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -13934,7 +13974,7 @@
       <c r="C359" t="n">
         <v>237</v>
       </c>
-      <c r="D359" s="1" t="n">
+      <c r="D359" t="n">
         <v>100</v>
       </c>
       <c r="E359" t="n">
@@ -13971,7 +14011,7 @@
       <c r="C360" t="n">
         <v>237</v>
       </c>
-      <c r="D360" s="1" t="n">
+      <c r="D360" t="n">
         <v>100</v>
       </c>
       <c r="E360" t="n">
@@ -13988,7 +14028,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I360" t="inlineStr"/>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -14004,7 +14048,7 @@
       <c r="C361" t="n">
         <v>237</v>
       </c>
-      <c r="D361" s="1" t="n">
+      <c r="D361" t="n">
         <v>100</v>
       </c>
       <c r="E361" t="n">
@@ -14021,7 +14065,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I361" t="inlineStr"/>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -14037,7 +14085,7 @@
       <c r="C362" t="n">
         <v>237</v>
       </c>
-      <c r="D362" s="1" t="n">
+      <c r="D362" t="n">
         <v>100</v>
       </c>
       <c r="E362" t="n">
@@ -14054,7 +14102,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I362" t="inlineStr"/>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -14070,7 +14122,7 @@
       <c r="C363" t="n">
         <v>237</v>
       </c>
-      <c r="D363" s="1" t="n">
+      <c r="D363" t="n">
         <v>100</v>
       </c>
       <c r="E363" t="n">
@@ -14087,7 +14139,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I363" t="inlineStr"/>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -14103,7 +14159,7 @@
       <c r="C364" t="n">
         <v>237</v>
       </c>
-      <c r="D364" s="1" t="n">
+      <c r="D364" t="n">
         <v>100</v>
       </c>
       <c r="E364" t="n">
@@ -14120,7 +14176,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I364" t="inlineStr"/>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -14136,7 +14196,7 @@
       <c r="C365" t="n">
         <v>237</v>
       </c>
-      <c r="D365" s="1" t="n">
+      <c r="D365" t="n">
         <v>100</v>
       </c>
       <c r="E365" t="n">
@@ -14153,7 +14213,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I365" t="inlineStr"/>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -14169,7 +14233,7 @@
       <c r="C366" t="n">
         <v>237</v>
       </c>
-      <c r="D366" s="1" t="n">
+      <c r="D366" t="n">
         <v>100</v>
       </c>
       <c r="E366" t="n">
@@ -14186,7 +14250,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I366" t="inlineStr"/>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -14202,7 +14270,7 @@
       <c r="C367" t="n">
         <v>237</v>
       </c>
-      <c r="D367" s="1" t="n">
+      <c r="D367" t="n">
         <v>100</v>
       </c>
       <c r="E367" t="n">
@@ -14219,7 +14287,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I367" t="inlineStr"/>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -14235,7 +14307,7 @@
       <c r="C368" t="n">
         <v>237</v>
       </c>
-      <c r="D368" s="1" t="n">
+      <c r="D368" t="n">
         <v>100</v>
       </c>
       <c r="E368" t="n">
@@ -14252,7 +14324,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I368" t="inlineStr"/>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -14268,7 +14344,7 @@
       <c r="C369" t="n">
         <v>237</v>
       </c>
-      <c r="D369" s="1" t="n">
+      <c r="D369" t="n">
         <v>100</v>
       </c>
       <c r="E369" t="n">
@@ -14285,7 +14361,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I369" t="inlineStr"/>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -14301,7 +14381,7 @@
       <c r="C370" t="n">
         <v>237</v>
       </c>
-      <c r="D370" s="1" t="n">
+      <c r="D370" t="n">
         <v>100</v>
       </c>
       <c r="E370" t="n">
@@ -14318,7 +14398,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I370" t="inlineStr"/>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -14334,7 +14418,7 @@
       <c r="C371" t="n">
         <v>237</v>
       </c>
-      <c r="D371" s="1" t="n">
+      <c r="D371" t="n">
         <v>100</v>
       </c>
       <c r="E371" t="n">
@@ -14351,7 +14435,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I371" t="inlineStr"/>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -14367,7 +14455,7 @@
       <c r="C372" t="n">
         <v>237</v>
       </c>
-      <c r="D372" s="1" t="n">
+      <c r="D372" t="n">
         <v>100</v>
       </c>
       <c r="E372" t="n">
@@ -14384,7 +14472,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I372" t="inlineStr"/>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -14400,7 +14492,7 @@
       <c r="C373" t="n">
         <v>237</v>
       </c>
-      <c r="D373" s="1" t="n">
+      <c r="D373" t="n">
         <v>100</v>
       </c>
       <c r="E373" t="n">
@@ -14417,7 +14509,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I373" t="inlineStr"/>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -14433,7 +14529,7 @@
       <c r="C374" t="n">
         <v>237</v>
       </c>
-      <c r="D374" s="1" t="n">
+      <c r="D374" t="n">
         <v>100</v>
       </c>
       <c r="E374" t="n">
@@ -14450,7 +14546,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I374" t="inlineStr"/>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -14466,7 +14566,7 @@
       <c r="C375" t="n">
         <v>237</v>
       </c>
-      <c r="D375" s="1" t="n">
+      <c r="D375" t="n">
         <v>100</v>
       </c>
       <c r="E375" t="n">
@@ -14483,7 +14583,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I375" t="inlineStr"/>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -14499,7 +14603,7 @@
       <c r="C376" t="n">
         <v>667</v>
       </c>
-      <c r="D376" s="1" t="n">
+      <c r="D376" t="n">
         <v>95</v>
       </c>
       <c r="E376" t="n">
@@ -14536,7 +14640,7 @@
       <c r="C377" t="n">
         <v>136</v>
       </c>
-      <c r="D377" s="1" t="n">
+      <c r="D377" t="n">
         <v>90</v>
       </c>
       <c r="E377" t="n">
@@ -14573,7 +14677,7 @@
       <c r="C378" t="n">
         <v>610</v>
       </c>
-      <c r="D378" s="1" t="n">
+      <c r="D378" t="n">
         <v>100</v>
       </c>
       <c r="E378" t="n">
@@ -14610,7 +14714,7 @@
       <c r="C379" t="n">
         <v>607</v>
       </c>
-      <c r="D379" s="1" t="inlineStr">
+      <c r="D379" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -14649,7 +14753,7 @@
       <c r="C380" t="n">
         <v>468</v>
       </c>
-      <c r="D380" s="1" t="inlineStr">
+      <c r="D380" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -14688,7 +14792,7 @@
       <c r="C381" t="n">
         <v>30</v>
       </c>
-      <c r="D381" s="1" t="n">
+      <c r="D381" t="n">
         <v>100</v>
       </c>
       <c r="E381" t="n">
@@ -14725,7 +14829,7 @@
       <c r="C382" t="n">
         <v>32</v>
       </c>
-      <c r="D382" s="1" t="n">
+      <c r="D382" t="n">
         <v>30</v>
       </c>
       <c r="E382" t="n">
@@ -14762,7 +14866,7 @@
       <c r="C383" t="n">
         <v>532</v>
       </c>
-      <c r="D383" s="1" t="n">
+      <c r="D383" t="n">
         <v>100</v>
       </c>
       <c r="E383" t="n">
@@ -14799,7 +14903,7 @@
       <c r="C384" t="n">
         <v>336</v>
       </c>
-      <c r="D384" s="1" t="inlineStr">
+      <c r="D384" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -14838,7 +14942,7 @@
       <c r="C385" t="n">
         <v>542</v>
       </c>
-      <c r="D385" s="1" t="n">
+      <c r="D385" t="n">
         <v>70</v>
       </c>
       <c r="E385" t="n">
@@ -14875,7 +14979,7 @@
       <c r="C386" t="n">
         <v>308</v>
       </c>
-      <c r="D386" s="1" t="n">
+      <c r="D386" t="n">
         <v>90</v>
       </c>
       <c r="E386" t="n">
@@ -14912,7 +15016,7 @@
       <c r="C387" t="n">
         <v>56</v>
       </c>
-      <c r="D387" s="1" t="n">
+      <c r="D387" t="n">
         <v>80</v>
       </c>
       <c r="E387" t="n">
@@ -14949,7 +15053,7 @@
       <c r="C388" t="n">
         <v>876</v>
       </c>
-      <c r="D388" s="1" t="n">
+      <c r="D388" t="n">
         <v>100</v>
       </c>
       <c r="E388" t="n">
@@ -14986,7 +15090,7 @@
       <c r="C389" t="n">
         <v>642</v>
       </c>
-      <c r="D389" s="1" t="inlineStr">
+      <c r="D389" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -15025,7 +15129,7 @@
       <c r="C390" t="n">
         <v>63</v>
       </c>
-      <c r="D390" s="1" t="n">
+      <c r="D390" t="n">
         <v>90</v>
       </c>
       <c r="E390" t="n">
@@ -15062,7 +15166,7 @@
       <c r="C391" t="n">
         <v>887</v>
       </c>
-      <c r="D391" s="1" t="n">
+      <c r="D391" t="n">
         <v>100</v>
       </c>
       <c r="E391" t="n">
@@ -15099,7 +15203,7 @@
       <c r="C392" t="n">
         <v>158</v>
       </c>
-      <c r="D392" s="1" t="n">
+      <c r="D392" t="n">
         <v>90</v>
       </c>
       <c r="E392" t="n">
@@ -15136,7 +15240,7 @@
       <c r="C393" t="n">
         <v>621</v>
       </c>
-      <c r="D393" s="1" t="inlineStr">
+      <c r="D393" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -15175,7 +15279,7 @@
       <c r="C394" t="n">
         <v>593</v>
       </c>
-      <c r="D394" s="1" t="inlineStr">
+      <c r="D394" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -15214,7 +15318,7 @@
       <c r="C395" t="n">
         <v>304</v>
       </c>
-      <c r="D395" s="1" t="n">
+      <c r="D395" t="n">
         <v>100</v>
       </c>
       <c r="E395" t="n">
@@ -15251,7 +15355,7 @@
       <c r="C396" t="n">
         <v>95</v>
       </c>
-      <c r="D396" s="1" t="n">
+      <c r="D396" t="n">
         <v>60</v>
       </c>
       <c r="E396" t="n">
@@ -15288,7 +15392,7 @@
       <c r="C397" t="n">
         <v>58</v>
       </c>
-      <c r="D397" s="1" t="n">
+      <c r="D397" t="n">
         <v>100</v>
       </c>
       <c r="E397" t="n">
@@ -15325,7 +15429,7 @@
       <c r="C398" t="n">
         <v>554</v>
       </c>
-      <c r="D398" s="1" t="n">
+      <c r="D398" t="n">
         <v>90</v>
       </c>
       <c r="E398" t="n">
@@ -15362,7 +15466,7 @@
       <c r="C399" t="n">
         <v>423</v>
       </c>
-      <c r="D399" s="1" t="n">
+      <c r="D399" t="n">
         <v>95</v>
       </c>
       <c r="E399" t="n">
@@ -15399,7 +15503,7 @@
       <c r="C400" t="n">
         <v>665</v>
       </c>
-      <c r="D400" s="1" t="n">
+      <c r="D400" t="n">
         <v>90</v>
       </c>
       <c r="E400" t="n">
@@ -15436,7 +15540,7 @@
       <c r="C401" t="n">
         <v>8</v>
       </c>
-      <c r="D401" s="1" t="n">
+      <c r="D401" t="n">
         <v>100</v>
       </c>
       <c r="E401" t="n">
@@ -15473,7 +15577,7 @@
       <c r="C402" t="n">
         <v>420</v>
       </c>
-      <c r="D402" s="1" t="n">
+      <c r="D402" t="n">
         <v>100</v>
       </c>
       <c r="E402" t="n">
@@ -15510,7 +15614,7 @@
       <c r="C403" t="n">
         <v>861</v>
       </c>
-      <c r="D403" s="1" t="n">
+      <c r="D403" t="n">
         <v>100</v>
       </c>
       <c r="E403" t="n">
@@ -15547,7 +15651,7 @@
       <c r="C404" t="n">
         <v>556</v>
       </c>
-      <c r="D404" s="1" t="n">
+      <c r="D404" t="n">
         <v>90</v>
       </c>
       <c r="E404" t="n">
@@ -15584,7 +15688,7 @@
       <c r="C405" t="n">
         <v>333</v>
       </c>
-      <c r="D405" s="1" t="n">
+      <c r="D405" t="n">
         <v>100</v>
       </c>
       <c r="E405" t="n">
@@ -15621,7 +15725,7 @@
       <c r="C406" t="n">
         <v>196</v>
       </c>
-      <c r="D406" s="1" t="n">
+      <c r="D406" t="n">
         <v>95</v>
       </c>
       <c r="E406" t="n">
@@ -15658,7 +15762,7 @@
       <c r="C407" t="n">
         <v>286</v>
       </c>
-      <c r="D407" s="1" t="inlineStr">
+      <c r="D407" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -15697,7 +15801,7 @@
       <c r="C408" t="n">
         <v>510</v>
       </c>
-      <c r="D408" s="1" t="n">
+      <c r="D408" t="n">
         <v>100</v>
       </c>
       <c r="E408" t="n">
@@ -15734,7 +15838,7 @@
       <c r="C409" t="n">
         <v>517</v>
       </c>
-      <c r="D409" s="1" t="n">
+      <c r="D409" t="n">
         <v>50</v>
       </c>
       <c r="E409" t="n">
@@ -15771,7 +15875,7 @@
       <c r="C410" t="n">
         <v>640</v>
       </c>
-      <c r="D410" s="1" t="inlineStr">
+      <c r="D410" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -15810,7 +15914,7 @@
       <c r="C411" t="n">
         <v>611</v>
       </c>
-      <c r="D411" s="1" t="n">
+      <c r="D411" t="n">
         <v>100</v>
       </c>
       <c r="E411" t="n">
@@ -15847,7 +15951,7 @@
       <c r="C412" t="n">
         <v>275</v>
       </c>
-      <c r="D412" s="1" t="inlineStr">
+      <c r="D412" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -15886,7 +15990,7 @@
       <c r="C413" t="n">
         <v>689</v>
       </c>
-      <c r="D413" s="1" t="inlineStr">
+      <c r="D413" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -15925,7 +16029,7 @@
       <c r="C414" t="n">
         <v>569</v>
       </c>
-      <c r="D414" s="1" t="inlineStr">
+      <c r="D414" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -15964,7 +16068,7 @@
       <c r="C415" t="n">
         <v>334</v>
       </c>
-      <c r="D415" s="1" t="inlineStr">
+      <c r="D415" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -16003,7 +16107,7 @@
       <c r="C416" t="n">
         <v>442</v>
       </c>
-      <c r="D416" s="1" t="n">
+      <c r="D416" t="n">
         <v>100</v>
       </c>
       <c r="E416" t="n">
@@ -16040,7 +16144,7 @@
       <c r="C417" t="n">
         <v>231</v>
       </c>
-      <c r="D417" s="1" t="n">
+      <c r="D417" t="n">
         <v>75</v>
       </c>
       <c r="E417" t="n">
@@ -16077,7 +16181,7 @@
       <c r="C418" t="n">
         <v>904</v>
       </c>
-      <c r="D418" s="1" t="n">
+      <c r="D418" t="n">
         <v>100</v>
       </c>
       <c r="E418" t="n">
@@ -16114,7 +16218,7 @@
       <c r="C419" t="n">
         <v>746</v>
       </c>
-      <c r="D419" s="1" t="n">
+      <c r="D419" t="n">
         <v>100</v>
       </c>
       <c r="E419" t="n">
@@ -16151,7 +16255,7 @@
       <c r="C420" t="n">
         <v>857</v>
       </c>
-      <c r="D420" s="1" t="n">
+      <c r="D420" t="n">
         <v>100</v>
       </c>
       <c r="E420" t="n">
@@ -16188,7 +16292,7 @@
       <c r="C421" t="n">
         <v>449</v>
       </c>
-      <c r="D421" s="1" t="n">
+      <c r="D421" t="n">
         <v>100</v>
       </c>
       <c r="E421" t="n">
@@ -16225,7 +16329,7 @@
       <c r="C422" t="n">
         <v>26</v>
       </c>
-      <c r="D422" s="1" t="n">
+      <c r="D422" t="n">
         <v>95</v>
       </c>
       <c r="E422" t="n">
@@ -16262,7 +16366,7 @@
       <c r="C423" t="n">
         <v>816</v>
       </c>
-      <c r="D423" s="1" t="inlineStr">
+      <c r="D423" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -16301,7 +16405,7 @@
       <c r="C424" t="n">
         <v>2</v>
       </c>
-      <c r="D424" s="1" t="n">
+      <c r="D424" t="n">
         <v>100</v>
       </c>
       <c r="E424" t="n">
@@ -16338,7 +16442,7 @@
       <c r="C425" t="n">
         <v>134</v>
       </c>
-      <c r="D425" s="1" t="n">
+      <c r="D425" t="n">
         <v>80</v>
       </c>
       <c r="E425" t="n">
@@ -16375,7 +16479,7 @@
       <c r="C426" t="n">
         <v>588</v>
       </c>
-      <c r="D426" s="1" t="inlineStr">
+      <c r="D426" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -16414,7 +16518,7 @@
       <c r="C427" t="n">
         <v>282</v>
       </c>
-      <c r="D427" s="1" t="n">
+      <c r="D427" t="n">
         <v>100</v>
       </c>
       <c r="E427" t="n">
@@ -16451,7 +16555,7 @@
       <c r="C428" t="n">
         <v>869</v>
       </c>
-      <c r="D428" s="1" t="inlineStr">
+      <c r="D428" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -16490,7 +16594,7 @@
       <c r="C429" t="n">
         <v>616</v>
       </c>
-      <c r="D429" s="1" t="n">
+      <c r="D429" t="n">
         <v>100</v>
       </c>
       <c r="E429" t="n">
@@ -16527,7 +16631,7 @@
       <c r="C430" t="n">
         <v>673</v>
       </c>
-      <c r="D430" s="1" t="inlineStr">
+      <c r="D430" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -16566,7 +16670,7 @@
       <c r="C431" t="n">
         <v>808</v>
       </c>
-      <c r="D431" s="1" t="n">
+      <c r="D431" t="n">
         <v>100</v>
       </c>
       <c r="E431" t="n">
@@ -16603,7 +16707,7 @@
       <c r="C432" t="n">
         <v>387</v>
       </c>
-      <c r="D432" s="1" t="n">
+      <c r="D432" t="n">
         <v>100</v>
       </c>
       <c r="E432" t="n">
@@ -16640,7 +16744,7 @@
       <c r="C433" t="n">
         <v>436</v>
       </c>
-      <c r="D433" s="1" t="n">
+      <c r="D433" t="n">
         <v>100</v>
       </c>
       <c r="E433" t="n">
@@ -16677,7 +16781,7 @@
       <c r="C434" t="n">
         <v>670</v>
       </c>
-      <c r="D434" s="1" t="n">
+      <c r="D434" t="n">
         <v>100</v>
       </c>
       <c r="E434" t="n">
@@ -16714,7 +16818,7 @@
       <c r="C435" t="n">
         <v>348</v>
       </c>
-      <c r="D435" s="1" t="n">
+      <c r="D435" t="n">
         <v>100</v>
       </c>
       <c r="E435" t="n">
@@ -16751,7 +16855,7 @@
       <c r="C436" t="n">
         <v>437</v>
       </c>
-      <c r="D436" s="1" t="n">
+      <c r="D436" t="n">
         <v>90</v>
       </c>
       <c r="E436" t="n">
@@ -16788,7 +16892,7 @@
       <c r="C437" t="n">
         <v>536</v>
       </c>
-      <c r="D437" s="1" t="n">
+      <c r="D437" t="n">
         <v>90</v>
       </c>
       <c r="E437" t="n">
@@ -16825,7 +16929,7 @@
       <c r="C438" t="n">
         <v>141</v>
       </c>
-      <c r="D438" s="1" t="n">
+      <c r="D438" t="n">
         <v>100</v>
       </c>
       <c r="E438" t="n">
@@ -16862,7 +16966,7 @@
       <c r="C439" t="n">
         <v>73</v>
       </c>
-      <c r="D439" s="1" t="n">
+      <c r="D439" t="n">
         <v>90</v>
       </c>
       <c r="E439" t="n">
@@ -16899,7 +17003,7 @@
       <c r="C440" t="n">
         <v>43</v>
       </c>
-      <c r="D440" s="1" t="n">
+      <c r="D440" t="n">
         <v>100</v>
       </c>
       <c r="E440" t="n">
@@ -16936,7 +17040,7 @@
       <c r="C441" t="n">
         <v>726</v>
       </c>
-      <c r="D441" s="1" t="inlineStr">
+      <c r="D441" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -16975,7 +17079,7 @@
       <c r="C442" t="n">
         <v>122</v>
       </c>
-      <c r="D442" s="1" t="n">
+      <c r="D442" t="n">
         <v>100</v>
       </c>
       <c r="E442" t="n">
@@ -17012,7 +17116,7 @@
       <c r="C443" t="n">
         <v>791</v>
       </c>
-      <c r="D443" s="1" t="inlineStr">
+      <c r="D443" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17051,7 +17155,7 @@
       <c r="C444" t="n">
         <v>617</v>
       </c>
-      <c r="D444" s="1" t="n">
+      <c r="D444" t="n">
         <v>90</v>
       </c>
       <c r="E444" t="n">
@@ -17088,7 +17192,7 @@
       <c r="C445" t="n">
         <v>113</v>
       </c>
-      <c r="D445" s="1" t="inlineStr">
+      <c r="D445" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17127,7 +17231,7 @@
       <c r="C446" t="n">
         <v>723</v>
       </c>
-      <c r="D446" s="1" t="inlineStr">
+      <c r="D446" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17166,7 +17270,7 @@
       <c r="C447" t="n">
         <v>710</v>
       </c>
-      <c r="D447" s="1" t="n">
+      <c r="D447" t="n">
         <v>100</v>
       </c>
       <c r="E447" t="n">
@@ -17203,7 +17307,7 @@
       <c r="C448" t="n">
         <v>199</v>
       </c>
-      <c r="D448" s="1" t="inlineStr">
+      <c r="D448" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17242,7 +17346,7 @@
       <c r="C449" t="n">
         <v>142</v>
       </c>
-      <c r="D449" s="1" t="n">
+      <c r="D449" t="n">
         <v>75</v>
       </c>
       <c r="E449" t="n">
@@ -17279,7 +17383,7 @@
       <c r="C450" t="n">
         <v>490</v>
       </c>
-      <c r="D450" s="1" t="n">
+      <c r="D450" t="n">
         <v>100</v>
       </c>
       <c r="E450" t="n">
@@ -17316,7 +17420,7 @@
       <c r="C451" t="n">
         <v>381</v>
       </c>
-      <c r="D451" s="1" t="inlineStr">
+      <c r="D451" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17355,7 +17459,7 @@
       <c r="C452" t="n">
         <v>855</v>
       </c>
-      <c r="D452" s="1" t="n">
+      <c r="D452" t="n">
         <v>100</v>
       </c>
       <c r="E452" t="n">
@@ -17392,7 +17496,7 @@
       <c r="C453" t="n">
         <v>849</v>
       </c>
-      <c r="D453" s="1" t="inlineStr">
+      <c r="D453" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17431,7 +17535,7 @@
       <c r="C454" t="n">
         <v>461</v>
       </c>
-      <c r="D454" s="1" t="inlineStr">
+      <c r="D454" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17470,7 +17574,7 @@
       <c r="C455" t="n">
         <v>679</v>
       </c>
-      <c r="D455" s="1" t="n">
+      <c r="D455" t="n">
         <v>100</v>
       </c>
       <c r="E455" t="n">
@@ -17507,7 +17611,7 @@
       <c r="C456" t="n">
         <v>295</v>
       </c>
-      <c r="D456" s="1" t="n">
+      <c r="D456" t="n">
         <v>100</v>
       </c>
       <c r="E456" t="n">
@@ -17544,7 +17648,7 @@
       <c r="C457" t="n">
         <v>183</v>
       </c>
-      <c r="D457" s="1" t="n">
+      <c r="D457" t="n">
         <v>100</v>
       </c>
       <c r="E457" t="n">
@@ -17581,7 +17685,7 @@
       <c r="C458" t="n">
         <v>345</v>
       </c>
-      <c r="D458" s="1" t="inlineStr">
+      <c r="D458" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17620,7 +17724,7 @@
       <c r="C459" t="n">
         <v>900</v>
       </c>
-      <c r="D459" s="1" t="n">
+      <c r="D459" t="n">
         <v>100</v>
       </c>
       <c r="E459" t="n">
@@ -17637,7 +17741,11 @@
           <t>Physical</t>
         </is>
       </c>
-      <c r="I459" t="inlineStr"/>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -17653,7 +17761,7 @@
       <c r="C460" t="n">
         <v>277</v>
       </c>
-      <c r="D460" s="1" t="inlineStr">
+      <c r="D460" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17692,7 +17800,7 @@
       <c r="C461" t="n">
         <v>750</v>
       </c>
-      <c r="D461" s="1" t="n">
+      <c r="D461" t="n">
         <v>100</v>
       </c>
       <c r="E461" t="n">
@@ -17729,7 +17837,7 @@
       <c r="C462" t="n">
         <v>478</v>
       </c>
-      <c r="D462" s="1" t="inlineStr">
+      <c r="D462" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17768,7 +17876,7 @@
       <c r="C463" t="n">
         <v>463</v>
       </c>
-      <c r="D463" s="1" t="n">
+      <c r="D463" t="n">
         <v>75</v>
       </c>
       <c r="E463" t="n">
@@ -17805,7 +17913,7 @@
       <c r="C464" t="n">
         <v>443</v>
       </c>
-      <c r="D464" s="1" t="inlineStr">
+      <c r="D464" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17844,7 +17952,7 @@
       <c r="C465" t="n">
         <v>602</v>
       </c>
-      <c r="D465" s="1" t="inlineStr">
+      <c r="D465" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17883,7 +17991,7 @@
       <c r="C466" t="n">
         <v>393</v>
       </c>
-      <c r="D466" s="1" t="inlineStr">
+      <c r="D466" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -17922,7 +18030,7 @@
       <c r="C467" t="n">
         <v>222</v>
       </c>
-      <c r="D467" s="1" t="n">
+      <c r="D467" t="n">
         <v>100</v>
       </c>
       <c r="E467" t="n">
@@ -17959,7 +18067,7 @@
       <c r="C468" t="n">
         <v>874</v>
       </c>
-      <c r="D468" s="1" t="n">
+      <c r="D468" t="n">
         <v>100</v>
       </c>
       <c r="E468" t="n">
@@ -17996,7 +18104,7 @@
       <c r="C469" t="n">
         <v>696</v>
       </c>
-      <c r="D469" s="1" t="inlineStr">
+      <c r="D469" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18035,7 +18143,7 @@
       <c r="C470" t="n">
         <v>919</v>
       </c>
-      <c r="D470" s="1" t="n">
+      <c r="D470" t="n">
         <v>100</v>
       </c>
       <c r="E470" t="n">
@@ -18072,7 +18180,7 @@
       <c r="C471" t="n">
         <v>561</v>
       </c>
-      <c r="D471" s="1" t="inlineStr">
+      <c r="D471" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18111,7 +18219,7 @@
       <c r="C472" t="n">
         <v>902</v>
       </c>
-      <c r="D472" s="1" t="n">
+      <c r="D472" t="n">
         <v>90</v>
       </c>
       <c r="E472" t="n">
@@ -18148,7 +18256,7 @@
       <c r="C473" t="n">
         <v>766</v>
       </c>
-      <c r="D473" s="1" t="inlineStr">
+      <c r="D473" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18187,7 +18295,7 @@
       <c r="C474" t="n">
         <v>772</v>
       </c>
-      <c r="D474" s="1" t="inlineStr">
+      <c r="D474" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18226,7 +18334,7 @@
       <c r="C475" t="n">
         <v>757</v>
       </c>
-      <c r="D475" s="1" t="inlineStr">
+      <c r="D475" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18265,7 +18373,7 @@
       <c r="C476" t="n">
         <v>758</v>
       </c>
-      <c r="D476" s="1" t="inlineStr">
+      <c r="D476" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18304,7 +18412,7 @@
       <c r="C477" t="n">
         <v>765</v>
       </c>
-      <c r="D477" s="1" t="inlineStr">
+      <c r="D477" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18343,7 +18451,7 @@
       <c r="C478" t="n">
         <v>743</v>
       </c>
-      <c r="D478" s="1" t="inlineStr">
+      <c r="D478" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18382,7 +18490,7 @@
       <c r="C479" t="n">
         <v>763</v>
       </c>
-      <c r="D479" s="1" t="inlineStr">
+      <c r="D479" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18421,7 +18529,7 @@
       <c r="C480" t="n">
         <v>761</v>
       </c>
-      <c r="D480" s="1" t="inlineStr">
+      <c r="D480" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18460,7 +18568,7 @@
       <c r="C481" t="n">
         <v>759</v>
       </c>
-      <c r="D481" s="1" t="inlineStr">
+      <c r="D481" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18499,7 +18607,7 @@
       <c r="C482" t="n">
         <v>769</v>
       </c>
-      <c r="D482" s="1" t="inlineStr">
+      <c r="D482" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18538,7 +18646,7 @@
       <c r="C483" t="n">
         <v>764</v>
       </c>
-      <c r="D483" s="1" t="inlineStr">
+      <c r="D483" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18577,7 +18685,7 @@
       <c r="C484" t="n">
         <v>773</v>
       </c>
-      <c r="D484" s="1" t="inlineStr">
+      <c r="D484" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18616,7 +18724,7 @@
       <c r="C485" t="n">
         <v>762</v>
       </c>
-      <c r="D485" s="1" t="inlineStr">
+      <c r="D485" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18655,7 +18763,7 @@
       <c r="C486" t="n">
         <v>771</v>
       </c>
-      <c r="D486" s="1" t="inlineStr">
+      <c r="D486" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18694,7 +18802,7 @@
       <c r="C487" t="n">
         <v>770</v>
       </c>
-      <c r="D487" s="1" t="inlineStr">
+      <c r="D487" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18733,7 +18841,7 @@
       <c r="C488" t="n">
         <v>767</v>
       </c>
-      <c r="D488" s="1" t="inlineStr">
+      <c r="D488" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18772,7 +18880,7 @@
       <c r="C489" t="n">
         <v>774</v>
       </c>
-      <c r="D489" s="1" t="inlineStr">
+      <c r="D489" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18811,7 +18919,7 @@
       <c r="C490" t="n">
         <v>760</v>
       </c>
-      <c r="D490" s="1" t="inlineStr">
+      <c r="D490" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18850,7 +18958,7 @@
       <c r="C491" t="n">
         <v>768</v>
       </c>
-      <c r="D491" s="1" t="inlineStr">
+      <c r="D491" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18889,7 +18997,7 @@
       <c r="C492" t="n">
         <v>212</v>
       </c>
-      <c r="D492" s="1" t="inlineStr">
+      <c r="D492" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18928,7 +19036,7 @@
       <c r="C493" t="n">
         <v>96</v>
       </c>
-      <c r="D493" s="1" t="inlineStr">
+      <c r="D493" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -18967,7 +19075,7 @@
       <c r="C494" t="n">
         <v>382</v>
       </c>
-      <c r="D494" s="1" t="inlineStr">
+      <c r="D494" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19006,7 +19114,7 @@
       <c r="C495" t="n">
         <v>72</v>
       </c>
-      <c r="D495" s="1" t="n">
+      <c r="D495" t="n">
         <v>100</v>
       </c>
       <c r="E495" t="n">
@@ -19043,7 +19151,7 @@
       <c r="C496" t="n">
         <v>224</v>
       </c>
-      <c r="D496" s="1" t="n">
+      <c r="D496" t="n">
         <v>85</v>
       </c>
       <c r="E496" t="n">
@@ -19080,7 +19188,7 @@
       <c r="C497" t="n">
         <v>25</v>
       </c>
-      <c r="D497" s="1" t="n">
+      <c r="D497" t="n">
         <v>75</v>
       </c>
       <c r="E497" t="n">
@@ -19117,7 +19225,7 @@
       <c r="C498" t="n">
         <v>5</v>
       </c>
-      <c r="D498" s="1" t="n">
+      <c r="D498" t="n">
         <v>85</v>
       </c>
       <c r="E498" t="n">
@@ -19154,7 +19262,7 @@
       <c r="C499" t="n">
         <v>262</v>
       </c>
-      <c r="D499" s="1" t="n">
+      <c r="D499" t="n">
         <v>100</v>
       </c>
       <c r="E499" t="n">
@@ -19191,7 +19299,7 @@
       <c r="C500" t="n">
         <v>725</v>
       </c>
-      <c r="D500" s="1" t="inlineStr">
+      <c r="D500" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19230,7 +19338,7 @@
       <c r="C501" t="n">
         <v>232</v>
       </c>
-      <c r="D501" s="1" t="n">
+      <c r="D501" t="n">
         <v>95</v>
       </c>
       <c r="E501" t="n">
@@ -19267,7 +19375,7 @@
       <c r="C502" t="n">
         <v>319</v>
       </c>
-      <c r="D502" s="1" t="n">
+      <c r="D502" t="n">
         <v>85</v>
       </c>
       <c r="E502" t="n">
@@ -19304,7 +19412,7 @@
       <c r="C503" t="n">
         <v>794</v>
       </c>
-      <c r="D503" s="1" t="n">
+      <c r="D503" t="n">
         <v>100</v>
       </c>
       <c r="E503" t="n">
@@ -19341,7 +19449,7 @@
       <c r="C504" t="n">
         <v>800</v>
       </c>
-      <c r="D504" s="1" t="n">
+      <c r="D504" t="n">
         <v>90</v>
       </c>
       <c r="E504" t="n">
@@ -19378,7 +19486,7 @@
       <c r="C505" t="n">
         <v>309</v>
       </c>
-      <c r="D505" s="1" t="n">
+      <c r="D505" t="n">
         <v>90</v>
       </c>
       <c r="E505" t="n">
@@ -19415,7 +19523,7 @@
       <c r="C506" t="n">
         <v>118</v>
       </c>
-      <c r="D506" s="1" t="inlineStr">
+      <c r="D506" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19434,7 +19542,11 @@
           <t>Status</t>
         </is>
       </c>
-      <c r="I506" t="inlineStr"/>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -19450,7 +19562,7 @@
       <c r="C507" t="n">
         <v>910</v>
       </c>
-      <c r="D507" s="1" t="n">
+      <c r="D507" t="n">
         <v>100</v>
       </c>
       <c r="E507" t="n">
@@ -19487,7 +19599,7 @@
       <c r="C508" t="n">
         <v>208</v>
       </c>
-      <c r="D508" s="1" t="inlineStr">
+      <c r="D508" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19526,7 +19638,7 @@
       <c r="C509" t="n">
         <v>102</v>
       </c>
-      <c r="D509" s="1" t="inlineStr">
+      <c r="D509" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19565,7 +19677,7 @@
       <c r="C510" t="n">
         <v>720</v>
       </c>
-      <c r="D510" s="1" t="n">
+      <c r="D510" t="n">
         <v>100</v>
       </c>
       <c r="E510" t="n">
@@ -19602,7 +19714,7 @@
       <c r="C511" t="n">
         <v>170</v>
       </c>
-      <c r="D511" s="1" t="inlineStr">
+      <c r="D511" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19641,7 +19753,7 @@
       <c r="C512" t="n">
         <v>107</v>
       </c>
-      <c r="D512" s="1" t="inlineStr">
+      <c r="D512" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19680,7 +19792,7 @@
       <c r="C513" t="n">
         <v>357</v>
       </c>
-      <c r="D513" s="1" t="inlineStr">
+      <c r="D513" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19719,7 +19831,7 @@
       <c r="C514" t="n">
         <v>119</v>
       </c>
-      <c r="D514" s="1" t="inlineStr">
+      <c r="D514" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19758,7 +19870,7 @@
       <c r="C515" t="n">
         <v>429</v>
       </c>
-      <c r="D515" s="1" t="n">
+      <c r="D515" t="n">
         <v>85</v>
       </c>
       <c r="E515" t="n">
@@ -19795,7 +19907,7 @@
       <c r="C516" t="n">
         <v>54</v>
       </c>
-      <c r="D516" s="1" t="inlineStr">
+      <c r="D516" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19834,7 +19946,7 @@
       <c r="C517" t="n">
         <v>296</v>
       </c>
-      <c r="D517" s="1" t="n">
+      <c r="D517" t="n">
         <v>100</v>
       </c>
       <c r="E517" t="n">
@@ -19871,7 +19983,7 @@
       <c r="C518" t="n">
         <v>802</v>
       </c>
-      <c r="D518" s="1" t="n">
+      <c r="D518" t="n">
         <v>100</v>
       </c>
       <c r="E518" t="n">
@@ -19908,7 +20020,7 @@
       <c r="C519" t="n">
         <v>581</v>
       </c>
-      <c r="D519" s="1" t="inlineStr">
+      <c r="D519" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -19947,7 +20059,7 @@
       <c r="C520" t="n">
         <v>585</v>
       </c>
-      <c r="D520" s="1" t="n">
+      <c r="D520" t="n">
         <v>100</v>
       </c>
       <c r="E520" t="n">
@@ -19984,7 +20096,7 @@
       <c r="C521" t="n">
         <v>714</v>
       </c>
-      <c r="D521" s="1" t="n">
+      <c r="D521" t="n">
         <v>100</v>
       </c>
       <c r="E521" t="n">
@@ -20021,7 +20133,7 @@
       <c r="C522" t="n">
         <v>236</v>
       </c>
-      <c r="D522" s="1" t="inlineStr">
+      <c r="D522" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -20060,7 +20172,7 @@
       <c r="C523" t="n">
         <v>234</v>
       </c>
-      <c r="D523" s="1" t="inlineStr">
+      <c r="D523" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -20099,7 +20211,7 @@
       <c r="C524" t="n">
         <v>866</v>
       </c>
-      <c r="D524" s="1" t="n">
+      <c r="D524" t="n">
         <v>100</v>
       </c>
       <c r="E524" t="n">
@@ -20136,7 +20248,7 @@
       <c r="C525" t="n">
         <v>836</v>
       </c>
-      <c r="D525" s="1" t="n">
+      <c r="D525" t="n">
         <v>85</v>
       </c>
       <c r="E525" t="n">
@@ -20173,7 +20285,7 @@
       <c r="C526" t="n">
         <v>426</v>
       </c>
-      <c r="D526" s="1" t="n">
+      <c r="D526" t="n">
         <v>85</v>
       </c>
       <c r="E526" t="n">
@@ -20210,7 +20322,7 @@
       <c r="C527" t="n">
         <v>341</v>
       </c>
-      <c r="D527" s="1" t="n">
+      <c r="D527" t="n">
         <v>95</v>
       </c>
       <c r="E527" t="n">
@@ -20247,7 +20359,7 @@
       <c r="C528" t="n">
         <v>189</v>
       </c>
-      <c r="D528" s="1" t="n">
+      <c r="D528" t="n">
         <v>100</v>
       </c>
       <c r="E528" t="n">
@@ -20284,7 +20396,7 @@
       <c r="C529" t="n">
         <v>300</v>
       </c>
-      <c r="D529" s="1" t="inlineStr">
+      <c r="D529" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -20323,7 +20435,7 @@
       <c r="C530" t="n">
         <v>330</v>
       </c>
-      <c r="D530" s="1" t="n">
+      <c r="D530" t="n">
         <v>85</v>
       </c>
       <c r="E530" t="n">
@@ -20360,7 +20472,7 @@
       <c r="C531" t="n">
         <v>718</v>
       </c>
-      <c r="D531" s="1" t="n">
+      <c r="D531" t="n">
         <v>100</v>
       </c>
       <c r="E531" t="n">
@@ -20397,7 +20509,7 @@
       <c r="C532" t="n">
         <v>595</v>
       </c>
-      <c r="D532" s="1" t="n">
+      <c r="D532" t="n">
         <v>100</v>
       </c>
       <c r="E532" t="n">
@@ -20434,7 +20546,7 @@
       <c r="C533" t="n">
         <v>832</v>
       </c>
-      <c r="D533" s="1" t="n">
+      <c r="D533" t="n">
         <v>90</v>
       </c>
       <c r="E533" t="n">
@@ -20471,7 +20583,7 @@
       <c r="C534" t="n">
         <v>417</v>
       </c>
-      <c r="D534" s="1" t="inlineStr">
+      <c r="D534" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -20510,7 +20622,7 @@
       <c r="C535" t="n">
         <v>363</v>
       </c>
-      <c r="D535" s="1" t="n">
+      <c r="D535" t="n">
         <v>100</v>
       </c>
       <c r="E535" t="n">
@@ -20547,7 +20659,7 @@
       <c r="C536" t="n">
         <v>267</v>
       </c>
-      <c r="D536" s="1" t="inlineStr">
+      <c r="D536" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -20586,7 +20698,7 @@
       <c r="C537" t="n">
         <v>302</v>
       </c>
-      <c r="D537" s="1" t="n">
+      <c r="D537" t="n">
         <v>100</v>
       </c>
       <c r="E537" t="n">
@@ -20623,7 +20735,7 @@
       <c r="C538" t="n">
         <v>636</v>
       </c>
-      <c r="D538" s="1" t="inlineStr">
+      <c r="D538" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -20662,7 +20774,7 @@
       <c r="C539" t="n">
         <v>539</v>
       </c>
-      <c r="D539" s="1" t="n">
+      <c r="D539" t="n">
         <v>95</v>
       </c>
       <c r="E539" t="n">
@@ -20699,7 +20811,7 @@
       <c r="C540" t="n">
         <v>171</v>
       </c>
-      <c r="D540" s="1" t="n">
+      <c r="D540" t="n">
         <v>100</v>
       </c>
       <c r="E540" t="n">
@@ -20736,7 +20848,7 @@
       <c r="C541" t="n">
         <v>101</v>
       </c>
-      <c r="D541" s="1" t="n">
+      <c r="D541" t="n">
         <v>100</v>
       </c>
       <c r="E541" t="n">
@@ -20773,7 +20885,7 @@
       <c r="C542" t="n">
         <v>400</v>
       </c>
-      <c r="D542" s="1" t="n">
+      <c r="D542" t="n">
         <v>100</v>
       </c>
       <c r="E542" t="n">
@@ -20810,7 +20922,7 @@
       <c r="C543" t="n">
         <v>568</v>
       </c>
-      <c r="D543" s="1" t="n">
+      <c r="D543" t="n">
         <v>100</v>
       </c>
       <c r="E543" t="n">
@@ -20847,7 +20959,7 @@
       <c r="C544" t="n">
         <v>748</v>
       </c>
-      <c r="D544" s="1" t="inlineStr">
+      <c r="D544" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -20886,7 +20998,7 @@
       <c r="C545" t="n">
         <v>898</v>
       </c>
-      <c r="D545" s="1" t="n">
+      <c r="D545" t="n">
         <v>100</v>
       </c>
       <c r="E545" t="n">
@@ -20903,7 +21015,11 @@
           <t>Physical</t>
         </is>
       </c>
-      <c r="I545" t="inlineStr"/>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -20919,7 +21035,7 @@
       <c r="C546" t="n">
         <v>609</v>
       </c>
-      <c r="D546" s="1" t="n">
+      <c r="D546" t="n">
         <v>100</v>
       </c>
       <c r="E546" t="n">
@@ -20956,7 +21072,7 @@
       <c r="C547" t="n">
         <v>613</v>
       </c>
-      <c r="D547" s="1" t="n">
+      <c r="D547" t="n">
         <v>100</v>
       </c>
       <c r="E547" t="n">
@@ -20993,7 +21109,7 @@
       <c r="C548" t="n">
         <v>792</v>
       </c>
-      <c r="D548" s="1" t="n">
+      <c r="D548" t="n">
         <v>100</v>
       </c>
       <c r="E548" t="n">
@@ -21030,7 +21146,7 @@
       <c r="C549" t="n">
         <v>697</v>
       </c>
-      <c r="D549" s="1" t="inlineStr">
+      <c r="D549" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -21069,7 +21185,7 @@
       <c r="C550" t="n">
         <v>190</v>
       </c>
-      <c r="D550" s="1" t="n">
+      <c r="D550" t="n">
         <v>85</v>
       </c>
       <c r="E550" t="n">
@@ -21106,7 +21222,7 @@
       <c r="C551" t="n">
         <v>753</v>
       </c>
-      <c r="D551" s="1" t="n">
+      <c r="D551" t="n">
         <v>100</v>
       </c>
       <c r="E551" t="n">
@@ -21143,7 +21259,7 @@
       <c r="C552" t="n">
         <v>316</v>
       </c>
-      <c r="D552" s="1" t="inlineStr">
+      <c r="D552" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -21182,7 +21298,7 @@
       <c r="C553" t="n">
         <v>466</v>
       </c>
-      <c r="D553" s="1" t="n">
+      <c r="D553" t="n">
         <v>100</v>
       </c>
       <c r="E553" t="n">
@@ -21219,7 +21335,7 @@
       <c r="C554" t="n">
         <v>856</v>
       </c>
-      <c r="D554" s="1" t="n">
+      <c r="D554" t="n">
         <v>100</v>
       </c>
       <c r="E554" t="n">
@@ -21256,7 +21372,7 @@
       <c r="C555" t="n">
         <v>618</v>
       </c>
-      <c r="D555" s="1" t="n">
+      <c r="D555" t="n">
         <v>85</v>
       </c>
       <c r="E555" t="n">
@@ -21293,7 +21409,7 @@
       <c r="C556" t="n">
         <v>200</v>
       </c>
-      <c r="D556" s="1" t="n">
+      <c r="D556" t="n">
         <v>100</v>
       </c>
       <c r="E556" t="n">
@@ -21330,7 +21446,7 @@
       <c r="C557" t="n">
         <v>786</v>
       </c>
-      <c r="D557" s="1" t="n">
+      <c r="D557" t="n">
         <v>100</v>
       </c>
       <c r="E557" t="n">
@@ -21347,7 +21463,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I557" t="inlineStr"/>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -21363,7 +21483,7 @@
       <c r="C558" t="n">
         <v>315</v>
       </c>
-      <c r="D558" s="1" t="n">
+      <c r="D558" t="n">
         <v>90</v>
       </c>
       <c r="E558" t="n">
@@ -21400,7 +21520,7 @@
       <c r="C559" t="n">
         <v>220</v>
       </c>
-      <c r="D559" s="1" t="inlineStr">
+      <c r="D559" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -21439,7 +21559,7 @@
       <c r="C560" t="n">
         <v>570</v>
       </c>
-      <c r="D560" s="1" t="n">
+      <c r="D560" t="n">
         <v>100</v>
       </c>
       <c r="E560" t="n">
@@ -21476,7 +21596,7 @@
       <c r="C561" t="n">
         <v>575</v>
       </c>
-      <c r="D561" s="1" t="n">
+      <c r="D561" t="n">
         <v>100</v>
       </c>
       <c r="E561" t="n">
@@ -21513,7 +21633,7 @@
       <c r="C562" t="n">
         <v>6</v>
       </c>
-      <c r="D562" s="1" t="n">
+      <c r="D562" t="n">
         <v>100</v>
       </c>
       <c r="E562" t="n">
@@ -21550,7 +21670,7 @@
       <c r="C563" t="n">
         <v>64</v>
       </c>
-      <c r="D563" s="1" t="n">
+      <c r="D563" t="n">
         <v>100</v>
       </c>
       <c r="E563" t="n">
@@ -21587,7 +21707,7 @@
       <c r="C564" t="n">
         <v>195</v>
       </c>
-      <c r="D564" s="1" t="inlineStr">
+      <c r="D564" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -21626,7 +21746,7 @@
       <c r="C565" t="n">
         <v>572</v>
       </c>
-      <c r="D565" s="1" t="n">
+      <c r="D565" t="n">
         <v>100</v>
       </c>
       <c r="E565" t="n">
@@ -21663,7 +21783,7 @@
       <c r="C566" t="n">
         <v>80</v>
       </c>
-      <c r="D566" s="1" t="n">
+      <c r="D566" t="n">
         <v>100</v>
       </c>
       <c r="E566" t="n">
@@ -21700,7 +21820,7 @@
       <c r="C567" t="n">
         <v>566</v>
       </c>
-      <c r="D567" s="1" t="n">
+      <c r="D567" t="n">
         <v>100</v>
       </c>
       <c r="E567" t="n">
@@ -21737,7 +21857,7 @@
       <c r="C568" t="n">
         <v>722</v>
       </c>
-      <c r="D568" s="1" t="n">
+      <c r="D568" t="n">
         <v>100</v>
       </c>
       <c r="E568" t="n">
@@ -21774,7 +21894,7 @@
       <c r="C569" t="n">
         <v>42</v>
       </c>
-      <c r="D569" s="1" t="n">
+      <c r="D569" t="n">
         <v>95</v>
       </c>
       <c r="E569" t="n">
@@ -21811,7 +21931,7 @@
       <c r="C570" t="n">
         <v>721</v>
       </c>
-      <c r="D570" s="1" t="n">
+      <c r="D570" t="n">
         <v>100</v>
       </c>
       <c r="E570" t="n">
@@ -21848,7 +21968,7 @@
       <c r="C571" t="n">
         <v>589</v>
       </c>
-      <c r="D571" s="1" t="inlineStr">
+      <c r="D571" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -21887,7 +22007,7 @@
       <c r="C572" t="n">
         <v>583</v>
       </c>
-      <c r="D572" s="1" t="n">
+      <c r="D572" t="n">
         <v>90</v>
       </c>
       <c r="E572" t="n">
@@ -21924,7 +22044,7 @@
       <c r="C573" t="n">
         <v>365</v>
       </c>
-      <c r="D573" s="1" t="n">
+      <c r="D573" t="n">
         <v>100</v>
       </c>
       <c r="E573" t="n">
@@ -21961,7 +22081,7 @@
       <c r="C574" t="n">
         <v>305</v>
       </c>
-      <c r="D574" s="1" t="n">
+      <c r="D574" t="n">
         <v>100</v>
       </c>
       <c r="E574" t="n">
@@ -21998,7 +22118,7 @@
       <c r="C575" t="n">
         <v>139</v>
       </c>
-      <c r="D575" s="1" t="n">
+      <c r="D575" t="n">
         <v>90</v>
       </c>
       <c r="E575" t="n">
@@ -22035,7 +22155,7 @@
       <c r="C576" t="n">
         <v>398</v>
       </c>
-      <c r="D576" s="1" t="n">
+      <c r="D576" t="n">
         <v>100</v>
       </c>
       <c r="E576" t="n">
@@ -22072,7 +22192,7 @@
       <c r="C577" t="n">
         <v>77</v>
       </c>
-      <c r="D577" s="1" t="n">
+      <c r="D577" t="n">
         <v>75</v>
       </c>
       <c r="E577" t="n">
@@ -22109,7 +22229,7 @@
       <c r="C578" t="n">
         <v>40</v>
       </c>
-      <c r="D578" s="1" t="n">
+      <c r="D578" t="n">
         <v>100</v>
       </c>
       <c r="E578" t="n">
@@ -22146,7 +22266,7 @@
       <c r="C579" t="n">
         <v>342</v>
       </c>
-      <c r="D579" s="1" t="n">
+      <c r="D579" t="n">
         <v>100</v>
       </c>
       <c r="E579" t="n">
@@ -22183,7 +22303,7 @@
       <c r="C580" t="n">
         <v>676</v>
       </c>
-      <c r="D580" s="1" t="n">
+      <c r="D580" t="n">
         <v>100</v>
       </c>
       <c r="E580" t="n">
@@ -22220,7 +22340,7 @@
       <c r="C581" t="n">
         <v>809</v>
       </c>
-      <c r="D581" s="1" t="n">
+      <c r="D581" t="n">
         <v>90</v>
       </c>
       <c r="E581" t="n">
@@ -22257,7 +22377,7 @@
       <c r="C582" t="n">
         <v>860</v>
       </c>
-      <c r="D582" s="1" t="n">
+      <c r="D582" t="n">
         <v>90</v>
       </c>
       <c r="E582" t="n">
@@ -22294,7 +22414,7 @@
       <c r="C583" t="n">
         <v>884</v>
       </c>
-      <c r="D583" s="1" t="n">
+      <c r="D583" t="n">
         <v>100</v>
       </c>
       <c r="E583" t="n">
@@ -22331,7 +22451,7 @@
       <c r="C584" t="n">
         <v>1</v>
       </c>
-      <c r="D584" s="1" t="n">
+      <c r="D584" t="n">
         <v>100</v>
       </c>
       <c r="E584" t="n">
@@ -22368,7 +22488,7 @@
       <c r="C585" t="n">
         <v>600</v>
       </c>
-      <c r="D585" s="1" t="n">
+      <c r="D585" t="n">
         <v>100</v>
       </c>
       <c r="E585" t="n">
@@ -22405,7 +22525,7 @@
       <c r="C586" t="n">
         <v>181</v>
       </c>
-      <c r="D586" s="1" t="n">
+      <c r="D586" t="n">
         <v>100</v>
       </c>
       <c r="E586" t="n">
@@ -22442,7 +22562,7 @@
       <c r="C587" t="n">
         <v>408</v>
       </c>
-      <c r="D587" s="1" t="n">
+      <c r="D587" t="n">
         <v>100</v>
       </c>
       <c r="E587" t="n">
@@ -22479,7 +22599,7 @@
       <c r="C588" t="n">
         <v>829</v>
       </c>
-      <c r="D588" s="1" t="inlineStr">
+      <c r="D588" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -22518,7 +22638,7 @@
       <c r="C589" t="n">
         <v>471</v>
       </c>
-      <c r="D589" s="1" t="inlineStr">
+      <c r="D589" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -22557,7 +22677,7 @@
       <c r="C590" t="n">
         <v>384</v>
       </c>
-      <c r="D590" s="1" t="inlineStr">
+      <c r="D590" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -22596,7 +22716,7 @@
       <c r="C591" t="n">
         <v>379</v>
       </c>
-      <c r="D591" s="1" t="inlineStr">
+      <c r="D591" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -22635,7 +22755,7 @@
       <c r="C592" t="n">
         <v>612</v>
       </c>
-      <c r="D592" s="1" t="n">
+      <c r="D592" t="n">
         <v>100</v>
       </c>
       <c r="E592" t="n">
@@ -22672,7 +22792,7 @@
       <c r="C593" t="n">
         <v>438</v>
       </c>
-      <c r="D593" s="1" t="n">
+      <c r="D593" t="n">
         <v>85</v>
       </c>
       <c r="E593" t="n">
@@ -22709,7 +22829,7 @@
       <c r="C594" t="n">
         <v>619</v>
       </c>
-      <c r="D594" s="1" t="n">
+      <c r="D594" t="n">
         <v>85</v>
       </c>
       <c r="E594" t="n">
@@ -22746,7 +22866,7 @@
       <c r="C595" t="n">
         <v>217</v>
       </c>
-      <c r="D595" s="1" t="n">
+      <c r="D595" t="n">
         <v>90</v>
       </c>
       <c r="E595" t="n">
@@ -22783,7 +22903,7 @@
       <c r="C596" t="n">
         <v>711</v>
       </c>
-      <c r="D596" s="1" t="n">
+      <c r="D596" t="n">
         <v>100</v>
       </c>
       <c r="E596" t="n">
@@ -22820,7 +22940,7 @@
       <c r="C597" t="n">
         <v>182</v>
       </c>
-      <c r="D597" s="1" t="inlineStr">
+      <c r="D597" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -22859,7 +22979,7 @@
       <c r="C598" t="n">
         <v>60</v>
       </c>
-      <c r="D598" s="1" t="n">
+      <c r="D598" t="n">
         <v>100</v>
       </c>
       <c r="E598" t="n">
@@ -22896,7 +23016,7 @@
       <c r="C599" t="n">
         <v>875</v>
       </c>
-      <c r="D599" s="1" t="n">
+      <c r="D599" t="n">
         <v>100</v>
       </c>
       <c r="E599" t="n">
@@ -22933,7 +23053,7 @@
       <c r="C600" t="n">
         <v>244</v>
       </c>
-      <c r="D600" s="1" t="inlineStr">
+      <c r="D600" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -22972,7 +23092,7 @@
       <c r="C601" t="n">
         <v>94</v>
       </c>
-      <c r="D601" s="1" t="n">
+      <c r="D601" t="n">
         <v>100</v>
       </c>
       <c r="E601" t="n">
@@ -22989,7 +23109,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I601" t="inlineStr"/>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -23005,7 +23129,7 @@
       <c r="C602" t="n">
         <v>706</v>
       </c>
-      <c r="D602" s="1" t="n">
+      <c r="D602" t="n">
         <v>100</v>
       </c>
       <c r="E602" t="n">
@@ -23042,7 +23166,7 @@
       <c r="C603" t="n">
         <v>917</v>
       </c>
-      <c r="D603" s="1" t="n">
+      <c r="D603" t="n">
         <v>100</v>
       </c>
       <c r="E603" t="n">
@@ -23079,7 +23203,7 @@
       <c r="C604" t="n">
         <v>678</v>
       </c>
-      <c r="D604" s="1" t="inlineStr">
+      <c r="D604" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -23118,7 +23242,7 @@
       <c r="C605" t="n">
         <v>354</v>
       </c>
-      <c r="D605" s="1" t="n">
+      <c r="D605" t="n">
         <v>90</v>
       </c>
       <c r="E605" t="n">
@@ -23155,7 +23279,7 @@
       <c r="C606" t="n">
         <v>427</v>
       </c>
-      <c r="D606" s="1" t="n">
+      <c r="D606" t="n">
         <v>100</v>
       </c>
       <c r="E606" t="n">
@@ -23192,7 +23316,7 @@
       <c r="C607" t="n">
         <v>375</v>
       </c>
-      <c r="D607" s="1" t="n">
+      <c r="D607" t="n">
         <v>100</v>
       </c>
       <c r="E607" t="n">
@@ -23229,7 +23353,7 @@
       <c r="C608" t="n">
         <v>828</v>
       </c>
-      <c r="D608" s="1" t="n">
+      <c r="D608" t="n">
         <v>90</v>
       </c>
       <c r="E608" t="n">
@@ -23266,7 +23390,7 @@
       <c r="C609" t="n">
         <v>473</v>
       </c>
-      <c r="D609" s="1" t="n">
+      <c r="D609" t="n">
         <v>100</v>
       </c>
       <c r="E609" t="n">
@@ -23303,7 +23427,7 @@
       <c r="C610" t="n">
         <v>540</v>
       </c>
-      <c r="D610" s="1" t="n">
+      <c r="D610" t="n">
         <v>100</v>
       </c>
       <c r="E610" t="n">
@@ -23340,7 +23464,7 @@
       <c r="C611" t="n">
         <v>701</v>
       </c>
-      <c r="D611" s="1" t="inlineStr">
+      <c r="D611" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -23379,7 +23503,7 @@
       <c r="C612" t="n">
         <v>685</v>
       </c>
-      <c r="D612" s="1" t="inlineStr">
+      <c r="D612" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -23418,7 +23542,7 @@
       <c r="C613" t="n">
         <v>780</v>
       </c>
-      <c r="D613" s="1" t="n">
+      <c r="D613" t="n">
         <v>90</v>
       </c>
       <c r="E613" t="n">
@@ -23455,7 +23579,7 @@
       <c r="C614" t="n">
         <v>511</v>
       </c>
-      <c r="D614" s="1" t="n">
+      <c r="D614" t="n">
         <v>100</v>
       </c>
       <c r="E614" t="n">
@@ -23492,7 +23616,7 @@
       <c r="C615" t="n">
         <v>98</v>
       </c>
-      <c r="D615" s="1" t="n">
+      <c r="D615" t="n">
         <v>100</v>
       </c>
       <c r="E615" t="n">
@@ -23529,7 +23653,7 @@
       <c r="C616" t="n">
         <v>501</v>
       </c>
-      <c r="D616" s="1" t="inlineStr">
+      <c r="D616" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -23568,7 +23692,7 @@
       <c r="C617" t="n">
         <v>483</v>
       </c>
-      <c r="D617" s="1" t="inlineStr">
+      <c r="D617" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -23607,7 +23731,7 @@
       <c r="C618" t="n">
         <v>99</v>
       </c>
-      <c r="D618" s="1" t="n">
+      <c r="D618" t="n">
         <v>100</v>
       </c>
       <c r="E618" t="n">
@@ -23644,7 +23768,7 @@
       <c r="C619" t="n">
         <v>476</v>
       </c>
-      <c r="D619" s="1" t="inlineStr">
+      <c r="D619" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -23683,7 +23807,7 @@
       <c r="C620" t="n">
         <v>873</v>
       </c>
-      <c r="D620" s="1" t="n">
+      <c r="D620" t="n">
         <v>100</v>
       </c>
       <c r="E620" t="n">
@@ -23720,7 +23844,7 @@
       <c r="C621" t="n">
         <v>833</v>
       </c>
-      <c r="D621" s="1" t="n">
+      <c r="D621" t="n">
         <v>100</v>
       </c>
       <c r="E621" t="n">
@@ -23757,7 +23881,7 @@
       <c r="C622" t="n">
         <v>240</v>
       </c>
-      <c r="D622" s="1" t="inlineStr">
+      <c r="D622" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -23796,7 +23920,7 @@
       <c r="C623" t="n">
         <v>229</v>
       </c>
-      <c r="D623" s="1" t="n">
+      <c r="D623" t="n">
         <v>100</v>
       </c>
       <c r="E623" t="n">
@@ -23833,7 +23957,7 @@
       <c r="C624" t="n">
         <v>75</v>
       </c>
-      <c r="D624" s="1" t="n">
+      <c r="D624" t="n">
         <v>95</v>
       </c>
       <c r="E624" t="n">
@@ -23870,7 +23994,7 @@
       <c r="C625" t="n">
         <v>534</v>
       </c>
-      <c r="D625" s="1" t="n">
+      <c r="D625" t="n">
         <v>95</v>
       </c>
       <c r="E625" t="n">
@@ -23907,7 +24031,7 @@
       <c r="C626" t="n">
         <v>13</v>
       </c>
-      <c r="D626" s="1" t="n">
+      <c r="D626" t="n">
         <v>100</v>
       </c>
       <c r="E626" t="n">
@@ -23944,7 +24068,7 @@
       <c r="C627" t="n">
         <v>105</v>
       </c>
-      <c r="D627" s="1" t="inlineStr">
+      <c r="D627" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -23983,7 +24107,7 @@
       <c r="C628" t="n">
         <v>278</v>
       </c>
-      <c r="D628" s="1" t="inlineStr">
+      <c r="D628" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24022,7 +24146,7 @@
       <c r="C629" t="n">
         <v>115</v>
       </c>
-      <c r="D629" s="1" t="inlineStr">
+      <c r="D629" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24061,7 +24185,7 @@
       <c r="C630" t="n">
         <v>513</v>
       </c>
-      <c r="D630" s="1" t="inlineStr">
+      <c r="D630" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24100,7 +24224,7 @@
       <c r="C631" t="n">
         <v>287</v>
       </c>
-      <c r="D631" s="1" t="inlineStr">
+      <c r="D631" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24139,7 +24263,7 @@
       <c r="C632" t="n">
         <v>547</v>
       </c>
-      <c r="D632" s="1" t="n">
+      <c r="D632" t="n">
         <v>100</v>
       </c>
       <c r="E632" t="n">
@@ -24176,7 +24300,7 @@
       <c r="C633" t="n">
         <v>156</v>
       </c>
-      <c r="D633" s="1" t="inlineStr">
+      <c r="D633" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24215,7 +24339,7 @@
       <c r="C634" t="n">
         <v>514</v>
       </c>
-      <c r="D634" s="1" t="n">
+      <c r="D634" t="n">
         <v>100</v>
       </c>
       <c r="E634" t="n">
@@ -24252,7 +24376,7 @@
       <c r="C635" t="n">
         <v>686</v>
       </c>
-      <c r="D635" s="1" t="n">
+      <c r="D635" t="n">
         <v>100</v>
       </c>
       <c r="E635" t="n">
@@ -24289,7 +24413,7 @@
       <c r="C636" t="n">
         <v>863</v>
       </c>
-      <c r="D636" s="1" t="inlineStr">
+      <c r="D636" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24328,7 +24452,7 @@
       <c r="C637" t="n">
         <v>46</v>
       </c>
-      <c r="D637" s="1" t="inlineStr">
+      <c r="D637" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24367,7 +24491,7 @@
       <c r="C638" t="n">
         <v>459</v>
       </c>
-      <c r="D638" s="1" t="n">
+      <c r="D638" t="n">
         <v>90</v>
       </c>
       <c r="E638" t="n">
@@ -24404,7 +24528,7 @@
       <c r="C639" t="n">
         <v>350</v>
       </c>
-      <c r="D639" s="1" t="n">
+      <c r="D639" t="n">
         <v>90</v>
       </c>
       <c r="E639" t="n">
@@ -24441,7 +24565,7 @@
       <c r="C640" t="n">
         <v>431</v>
       </c>
-      <c r="D640" s="1" t="n">
+      <c r="D640" t="n">
         <v>85</v>
       </c>
       <c r="E640" t="n">
@@ -24478,7 +24602,7 @@
       <c r="C641" t="n">
         <v>397</v>
       </c>
-      <c r="D641" s="1" t="inlineStr">
+      <c r="D641" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24517,7 +24641,7 @@
       <c r="C642" t="n">
         <v>157</v>
       </c>
-      <c r="D642" s="1" t="n">
+      <c r="D642" t="n">
         <v>90</v>
       </c>
       <c r="E642" t="n">
@@ -24554,7 +24678,7 @@
       <c r="C643" t="n">
         <v>249</v>
       </c>
-      <c r="D643" s="1" t="n">
+      <c r="D643" t="n">
         <v>100</v>
       </c>
       <c r="E643" t="n">
@@ -24591,7 +24715,7 @@
       <c r="C644" t="n">
         <v>88</v>
       </c>
-      <c r="D644" s="1" t="n">
+      <c r="D644" t="n">
         <v>90</v>
       </c>
       <c r="E644" t="n">
@@ -24628,7 +24752,7 @@
       <c r="C645" t="n">
         <v>317</v>
       </c>
-      <c r="D645" s="1" t="n">
+      <c r="D645" t="n">
         <v>95</v>
       </c>
       <c r="E645" t="n">
@@ -24665,7 +24789,7 @@
       <c r="C646" t="n">
         <v>439</v>
       </c>
-      <c r="D646" s="1" t="n">
+      <c r="D646" t="n">
         <v>90</v>
       </c>
       <c r="E646" t="n">
@@ -24702,7 +24826,7 @@
       <c r="C647" t="n">
         <v>272</v>
       </c>
-      <c r="D647" s="1" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24741,7 +24865,7 @@
       <c r="C648" t="n">
         <v>27</v>
       </c>
-      <c r="D648" s="1" t="n">
+      <c r="D648" t="n">
         <v>85</v>
       </c>
       <c r="E648" t="n">
@@ -24778,7 +24902,7 @@
       <c r="C649" t="n">
         <v>355</v>
       </c>
-      <c r="D649" s="1" t="inlineStr">
+      <c r="D649" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24817,7 +24941,7 @@
       <c r="C650" t="n">
         <v>563</v>
       </c>
-      <c r="D650" s="1" t="inlineStr">
+      <c r="D650" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24856,7 +24980,7 @@
       <c r="C651" t="n">
         <v>221</v>
       </c>
-      <c r="D651" s="1" t="n">
+      <c r="D651" t="n">
         <v>95</v>
       </c>
       <c r="E651" t="n">
@@ -24893,7 +25017,7 @@
       <c r="C652" t="n">
         <v>533</v>
       </c>
-      <c r="D652" s="1" t="n">
+      <c r="D652" t="n">
         <v>100</v>
       </c>
       <c r="E652" t="n">
@@ -24930,7 +25054,7 @@
       <c r="C653" t="n">
         <v>219</v>
       </c>
-      <c r="D653" s="1" t="inlineStr">
+      <c r="D653" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -24969,7 +25093,7 @@
       <c r="C654" t="n">
         <v>864</v>
       </c>
-      <c r="D654" s="1" t="n">
+      <c r="D654" t="n">
         <v>100</v>
       </c>
       <c r="E654" t="n">
@@ -25006,7 +25130,7 @@
       <c r="C655" t="n">
         <v>28</v>
       </c>
-      <c r="D655" s="1" t="n">
+      <c r="D655" t="n">
         <v>100</v>
       </c>
       <c r="E655" t="n">
@@ -25043,7 +25167,7 @@
       <c r="C656" t="n">
         <v>848</v>
       </c>
-      <c r="D656" s="1" t="n">
+      <c r="D656" t="n">
         <v>80</v>
       </c>
       <c r="E656" t="n">
@@ -25080,7 +25204,7 @@
       <c r="C657" t="n">
         <v>201</v>
       </c>
-      <c r="D657" s="1" t="inlineStr">
+      <c r="D657" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -25119,7 +25243,7 @@
       <c r="C658" t="n">
         <v>328</v>
       </c>
-      <c r="D658" s="1" t="n">
+      <c r="D658" t="n">
         <v>85</v>
       </c>
       <c r="E658" t="n">
@@ -25156,7 +25280,7 @@
       <c r="C659" t="n">
         <v>738</v>
       </c>
-      <c r="D659" s="1" t="n">
+      <c r="D659" t="n">
         <v>90</v>
       </c>
       <c r="E659" t="n">
@@ -25193,7 +25317,7 @@
       <c r="C660" t="n">
         <v>634</v>
       </c>
-      <c r="D660" s="1" t="inlineStr">
+      <c r="D660" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -25232,7 +25356,7 @@
       <c r="C661" t="n">
         <v>503</v>
       </c>
-      <c r="D661" s="1" t="n">
+      <c r="D661" t="n">
         <v>100</v>
       </c>
       <c r="E661" t="n">
@@ -25269,7 +25393,7 @@
       <c r="C662" t="n">
         <v>799</v>
       </c>
-      <c r="D662" s="1" t="n">
+      <c r="D662" t="n">
         <v>90</v>
       </c>
       <c r="E662" t="n">
@@ -25306,7 +25430,7 @@
       <c r="C663" t="n">
         <v>184</v>
       </c>
-      <c r="D663" s="1" t="n">
+      <c r="D663" t="n">
         <v>100</v>
       </c>
       <c r="E663" t="n">
@@ -25343,7 +25467,7 @@
       <c r="C664" t="n">
         <v>815</v>
       </c>
-      <c r="D664" s="1" t="n">
+      <c r="D664" t="n">
         <v>100</v>
       </c>
       <c r="E664" t="n">
@@ -25380,7 +25504,7 @@
       <c r="C665" t="n">
         <v>10</v>
       </c>
-      <c r="D665" s="1" t="n">
+      <c r="D665" t="n">
         <v>100</v>
       </c>
       <c r="E665" t="n">
@@ -25417,7 +25541,7 @@
       <c r="C666" t="n">
         <v>103</v>
       </c>
-      <c r="D666" s="1" t="n">
+      <c r="D666" t="n">
         <v>85</v>
       </c>
       <c r="E666" t="n">
@@ -25454,7 +25578,7 @@
       <c r="C667" t="n">
         <v>545</v>
       </c>
-      <c r="D667" s="1" t="n">
+      <c r="D667" t="n">
         <v>100</v>
       </c>
       <c r="E667" t="n">
@@ -25491,7 +25615,7 @@
       <c r="C668" t="n">
         <v>724</v>
       </c>
-      <c r="D668" s="1" t="inlineStr">
+      <c r="D668" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -25530,7 +25654,7 @@
       <c r="C669" t="n">
         <v>290</v>
       </c>
-      <c r="D669" s="1" t="n">
+      <c r="D669" t="n">
         <v>100</v>
       </c>
       <c r="E669" t="n">
@@ -25567,7 +25691,7 @@
       <c r="C670" t="n">
         <v>548</v>
       </c>
-      <c r="D670" s="1" t="n">
+      <c r="D670" t="n">
         <v>100</v>
       </c>
       <c r="E670" t="n">
@@ -25604,7 +25728,7 @@
       <c r="C671" t="n">
         <v>402</v>
       </c>
-      <c r="D671" s="1" t="n">
+      <c r="D671" t="n">
         <v>100</v>
       </c>
       <c r="E671" t="n">
@@ -25641,7 +25765,7 @@
       <c r="C672" t="n">
         <v>465</v>
       </c>
-      <c r="D672" s="1" t="n">
+      <c r="D672" t="n">
         <v>85</v>
       </c>
       <c r="E672" t="n">
@@ -25678,7 +25802,7 @@
       <c r="C673" t="n">
         <v>69</v>
       </c>
-      <c r="D673" s="1" t="n">
+      <c r="D673" t="n">
         <v>100</v>
       </c>
       <c r="E673" t="n">
@@ -25715,7 +25839,7 @@
       <c r="C674" t="n">
         <v>120</v>
       </c>
-      <c r="D674" s="1" t="n">
+      <c r="D674" t="n">
         <v>100</v>
       </c>
       <c r="E674" t="n">
@@ -25752,7 +25876,7 @@
       <c r="C675" t="n">
         <v>247</v>
       </c>
-      <c r="D675" s="1" t="n">
+      <c r="D675" t="n">
         <v>100</v>
       </c>
       <c r="E675" t="n">
@@ -25789,7 +25913,7 @@
       <c r="C676" t="n">
         <v>708</v>
       </c>
-      <c r="D676" s="1" t="n">
+      <c r="D676" t="n">
         <v>100</v>
       </c>
       <c r="E676" t="n">
@@ -25826,7 +25950,7 @@
       <c r="C677" t="n">
         <v>421</v>
       </c>
-      <c r="D677" s="1" t="n">
+      <c r="D677" t="n">
         <v>100</v>
       </c>
       <c r="E677" t="n">
@@ -25863,7 +25987,7 @@
       <c r="C678" t="n">
         <v>467</v>
       </c>
-      <c r="D678" s="1" t="n">
+      <c r="D678" t="n">
         <v>100</v>
       </c>
       <c r="E678" t="n">
@@ -25900,7 +26024,7 @@
       <c r="C679" t="n">
         <v>325</v>
       </c>
-      <c r="D679" s="1" t="inlineStr">
+      <c r="D679" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -25939,7 +26063,7 @@
       <c r="C680" t="n">
         <v>425</v>
       </c>
-      <c r="D680" s="1" t="n">
+      <c r="D680" t="n">
         <v>100</v>
       </c>
       <c r="E680" t="n">
@@ -25976,7 +26100,7 @@
       <c r="C681" t="n">
         <v>159</v>
       </c>
-      <c r="D681" s="1" t="inlineStr">
+      <c r="D681" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26015,7 +26139,7 @@
       <c r="C682" t="n">
         <v>648</v>
       </c>
-      <c r="D682" s="1" t="inlineStr">
+      <c r="D682" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26054,7 +26178,7 @@
       <c r="C683" t="n">
         <v>880</v>
       </c>
-      <c r="D683" s="1" t="inlineStr">
+      <c r="D683" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26093,7 +26217,7 @@
       <c r="C684" t="n">
         <v>329</v>
       </c>
-      <c r="D684" s="1" t="n">
+      <c r="D684" t="n">
         <v>30</v>
       </c>
       <c r="E684" t="n">
@@ -26130,7 +26254,7 @@
       <c r="C685" t="n">
         <v>801</v>
       </c>
-      <c r="D685" s="1" t="n">
+      <c r="D685" t="n">
         <v>100</v>
       </c>
       <c r="E685" t="n">
@@ -26167,7 +26291,7 @@
       <c r="C686" t="n">
         <v>504</v>
       </c>
-      <c r="D686" s="1" t="inlineStr">
+      <c r="D686" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26206,7 +26330,7 @@
       <c r="C687" t="n">
         <v>704</v>
       </c>
-      <c r="D687" s="1" t="n">
+      <c r="D687" t="n">
         <v>100</v>
       </c>
       <c r="E687" t="n">
@@ -26243,7 +26367,7 @@
       <c r="C688" t="n">
         <v>842</v>
       </c>
-      <c r="D688" s="1" t="inlineStr">
+      <c r="D688" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26282,7 +26406,7 @@
       <c r="C689" t="n">
         <v>508</v>
       </c>
-      <c r="D689" s="1" t="inlineStr">
+      <c r="D689" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26321,7 +26445,7 @@
       <c r="C690" t="n">
         <v>351</v>
       </c>
-      <c r="D690" s="1" t="inlineStr">
+      <c r="D690" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26360,7 +26484,7 @@
       <c r="C691" t="n">
         <v>659</v>
       </c>
-      <c r="D691" s="1" t="inlineStr">
+      <c r="D691" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26399,7 +26523,7 @@
       <c r="C692" t="n">
         <v>324</v>
       </c>
-      <c r="D692" s="1" t="n">
+      <c r="D692" t="n">
         <v>100</v>
       </c>
       <c r="E692" t="n">
@@ -26436,7 +26560,7 @@
       <c r="C693" t="n">
         <v>852</v>
       </c>
-      <c r="D693" s="1" t="inlineStr">
+      <c r="D693" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26475,7 +26599,7 @@
       <c r="C694" t="n">
         <v>318</v>
       </c>
-      <c r="D694" s="1" t="n">
+      <c r="D694" t="n">
         <v>100</v>
       </c>
       <c r="E694" t="n">
@@ -26512,7 +26636,7 @@
       <c r="C695" t="n">
         <v>493</v>
       </c>
-      <c r="D695" s="1" t="n">
+      <c r="D695" t="n">
         <v>100</v>
       </c>
       <c r="E695" t="n">
@@ -26549,7 +26673,7 @@
       <c r="C696" t="n">
         <v>47</v>
       </c>
-      <c r="D696" s="1" t="n">
+      <c r="D696" t="n">
         <v>55</v>
       </c>
       <c r="E696" t="n">
@@ -26586,7 +26710,7 @@
       <c r="C697" t="n">
         <v>695</v>
       </c>
-      <c r="D697" s="1" t="inlineStr">
+      <c r="D697" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26625,7 +26749,7 @@
       <c r="C698" t="n">
         <v>735</v>
       </c>
-      <c r="D698" s="1" t="n">
+      <c r="D698" t="n">
         <v>100</v>
       </c>
       <c r="E698" t="n">
@@ -26662,7 +26786,7 @@
       <c r="C699" t="n">
         <v>166</v>
       </c>
-      <c r="D699" s="1" t="inlineStr">
+      <c r="D699" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26701,7 +26825,7 @@
       <c r="C700" t="n">
         <v>285</v>
       </c>
-      <c r="D700" s="1" t="inlineStr">
+      <c r="D700" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26740,7 +26864,7 @@
       <c r="C701" t="n">
         <v>806</v>
       </c>
-      <c r="D701" s="1" t="n">
+      <c r="D701" t="n">
         <v>90</v>
       </c>
       <c r="E701" t="n">
@@ -26777,7 +26901,7 @@
       <c r="C702" t="n">
         <v>130</v>
       </c>
-      <c r="D702" s="1" t="n">
+      <c r="D702" t="n">
         <v>100</v>
       </c>
       <c r="E702" t="n">
@@ -26814,7 +26938,7 @@
       <c r="C703" t="n">
         <v>143</v>
       </c>
-      <c r="D703" s="1" t="n">
+      <c r="D703" t="n">
         <v>90</v>
       </c>
       <c r="E703" t="n">
@@ -26851,7 +26975,7 @@
       <c r="C704" t="n">
         <v>507</v>
       </c>
-      <c r="D704" s="1" t="n">
+      <c r="D704" t="n">
         <v>100</v>
       </c>
       <c r="E704" t="n">
@@ -26888,7 +27012,7 @@
       <c r="C705" t="n">
         <v>327</v>
       </c>
-      <c r="D705" s="1" t="n">
+      <c r="D705" t="n">
         <v>90</v>
       </c>
       <c r="E705" t="n">
@@ -26925,7 +27049,7 @@
       <c r="C706" t="n">
         <v>303</v>
       </c>
-      <c r="D706" s="1" t="inlineStr">
+      <c r="D706" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -26964,7 +27088,7 @@
       <c r="C707" t="n">
         <v>21</v>
       </c>
-      <c r="D707" s="1" t="n">
+      <c r="D707" t="n">
         <v>75</v>
       </c>
       <c r="E707" t="n">
@@ -27001,7 +27125,7 @@
       <c r="C708" t="n">
         <v>163</v>
       </c>
-      <c r="D708" s="1" t="n">
+      <c r="D708" t="n">
         <v>100</v>
       </c>
       <c r="E708" t="n">
@@ -27038,7 +27162,7 @@
       <c r="C709" t="n">
         <v>79</v>
       </c>
-      <c r="D709" s="1" t="n">
+      <c r="D709" t="n">
         <v>75</v>
       </c>
       <c r="E709" t="n">
@@ -27075,7 +27199,7 @@
       <c r="C710" t="n">
         <v>214</v>
       </c>
-      <c r="D710" s="1" t="inlineStr">
+      <c r="D710" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -27114,7 +27238,7 @@
       <c r="C711" t="n">
         <v>124</v>
       </c>
-      <c r="D711" s="1" t="n">
+      <c r="D711" t="n">
         <v>100</v>
       </c>
       <c r="E711" t="n">
@@ -27151,7 +27275,7 @@
       <c r="C712" t="n">
         <v>188</v>
       </c>
-      <c r="D712" s="1" t="n">
+      <c r="D712" t="n">
         <v>100</v>
       </c>
       <c r="E712" t="n">
@@ -27188,7 +27312,7 @@
       <c r="C713" t="n">
         <v>482</v>
       </c>
-      <c r="D713" s="1" t="n">
+      <c r="D713" t="n">
         <v>100</v>
       </c>
       <c r="E713" t="n">
@@ -27225,7 +27349,7 @@
       <c r="C714" t="n">
         <v>479</v>
       </c>
-      <c r="D714" s="1" t="n">
+      <c r="D714" t="n">
         <v>100</v>
       </c>
       <c r="E714" t="n">
@@ -27262,7 +27386,7 @@
       <c r="C715" t="n">
         <v>684</v>
       </c>
-      <c r="D715" s="1" t="inlineStr">
+      <c r="D715" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -27301,7 +27425,7 @@
       <c r="C716" t="n">
         <v>123</v>
       </c>
-      <c r="D716" s="1" t="n">
+      <c r="D716" t="n">
         <v>70</v>
       </c>
       <c r="E716" t="n">
@@ -27338,7 +27462,7 @@
       <c r="C717" t="n">
         <v>108</v>
       </c>
-      <c r="D717" s="1" t="n">
+      <c r="D717" t="n">
         <v>100</v>
       </c>
       <c r="E717" t="n">
@@ -27375,7 +27499,7 @@
       <c r="C718" t="n">
         <v>779</v>
       </c>
-      <c r="D718" s="1" t="n">
+      <c r="D718" t="n">
         <v>100</v>
       </c>
       <c r="E718" t="n">
@@ -27412,7 +27536,7 @@
       <c r="C719" t="n">
         <v>555</v>
       </c>
-      <c r="D719" s="1" t="n">
+      <c r="D719" t="n">
         <v>95</v>
       </c>
       <c r="E719" t="n">
@@ -27449,7 +27573,7 @@
       <c r="C720" t="n">
         <v>289</v>
       </c>
-      <c r="D720" s="1" t="inlineStr">
+      <c r="D720" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -27488,7 +27612,7 @@
       <c r="C721" t="n">
         <v>745</v>
       </c>
-      <c r="D721" s="1" t="n">
+      <c r="D721" t="n">
         <v>100</v>
       </c>
       <c r="E721" t="n">
@@ -27525,7 +27649,7 @@
       <c r="C722" t="n">
         <v>173</v>
       </c>
-      <c r="D722" s="1" t="n">
+      <c r="D722" t="n">
         <v>100</v>
       </c>
       <c r="E722" t="n">
@@ -27562,7 +27686,7 @@
       <c r="C723" t="n">
         <v>883</v>
       </c>
-      <c r="D723" s="1" t="inlineStr">
+      <c r="D723" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -27601,7 +27725,7 @@
       <c r="C724" t="n">
         <v>487</v>
       </c>
-      <c r="D724" s="1" t="n">
+      <c r="D724" t="n">
         <v>100</v>
       </c>
       <c r="E724" t="n">
@@ -27638,7 +27762,7 @@
       <c r="C725" t="n">
         <v>135</v>
       </c>
-      <c r="D725" s="1" t="inlineStr">
+      <c r="D725" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -27677,7 +27801,7 @@
       <c r="C726" t="n">
         <v>76</v>
       </c>
-      <c r="D726" s="1" t="n">
+      <c r="D726" t="n">
         <v>100</v>
       </c>
       <c r="E726" t="n">
@@ -27714,7 +27838,7 @@
       <c r="C727" t="n">
         <v>669</v>
       </c>
-      <c r="D727" s="1" t="n">
+      <c r="D727" t="n">
         <v>100</v>
       </c>
       <c r="E727" t="n">
@@ -27751,7 +27875,7 @@
       <c r="C728" t="n">
         <v>49</v>
       </c>
-      <c r="D728" s="1" t="n">
+      <c r="D728" t="n">
         <v>90</v>
       </c>
       <c r="E728" t="n">
@@ -27788,7 +27912,7 @@
       <c r="C729" t="n">
         <v>699</v>
       </c>
-      <c r="D729" s="1" t="inlineStr">
+      <c r="D729" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -27827,7 +27951,7 @@
       <c r="C730" t="n">
         <v>460</v>
       </c>
-      <c r="D730" s="1" t="n">
+      <c r="D730" t="n">
         <v>95</v>
       </c>
       <c r="E730" t="n">
@@ -27864,7 +27988,7 @@
       <c r="C731" t="n">
         <v>209</v>
       </c>
-      <c r="D731" s="1" t="n">
+      <c r="D731" t="n">
         <v>100</v>
       </c>
       <c r="E731" t="n">
@@ -27901,7 +28025,7 @@
       <c r="C732" t="n">
         <v>664</v>
       </c>
-      <c r="D732" s="1" t="n">
+      <c r="D732" t="n">
         <v>100</v>
       </c>
       <c r="E732" t="n">
@@ -27938,7 +28062,7 @@
       <c r="C733" t="n">
         <v>740</v>
       </c>
-      <c r="D733" s="1" t="n">
+      <c r="D733" t="n">
         <v>85</v>
       </c>
       <c r="E733" t="n">
@@ -27975,7 +28099,7 @@
       <c r="C734" t="n">
         <v>712</v>
       </c>
-      <c r="D734" s="1" t="n">
+      <c r="D734" t="n">
         <v>100</v>
       </c>
       <c r="E734" t="n">
@@ -28012,7 +28136,7 @@
       <c r="C735" t="n">
         <v>683</v>
       </c>
-      <c r="D735" s="1" t="inlineStr">
+      <c r="D735" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28051,7 +28175,7 @@
       <c r="C736" t="n">
         <v>858</v>
       </c>
-      <c r="D736" s="1" t="inlineStr">
+      <c r="D736" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28090,7 +28214,7 @@
       <c r="C737" t="n">
         <v>169</v>
       </c>
-      <c r="D737" s="1" t="inlineStr">
+      <c r="D737" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28129,7 +28253,7 @@
       <c r="C738" t="n">
         <v>131</v>
       </c>
-      <c r="D738" s="1" t="n">
+      <c r="D738" t="n">
         <v>100</v>
       </c>
       <c r="E738" t="n">
@@ -28166,7 +28290,7 @@
       <c r="C739" t="n">
         <v>191</v>
       </c>
-      <c r="D739" s="1" t="inlineStr">
+      <c r="D739" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28205,7 +28329,7 @@
       <c r="C740" t="n">
         <v>596</v>
       </c>
-      <c r="D740" s="1" t="inlineStr">
+      <c r="D740" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28244,7 +28368,7 @@
       <c r="C741" t="n">
         <v>859</v>
       </c>
-      <c r="D741" s="1" t="n">
+      <c r="D741" t="n">
         <v>100</v>
       </c>
       <c r="E741" t="n">
@@ -28281,7 +28405,7 @@
       <c r="C742" t="n">
         <v>789</v>
       </c>
-      <c r="D742" s="1" t="n">
+      <c r="D742" t="n">
         <v>100</v>
       </c>
       <c r="E742" t="n">
@@ -28318,7 +28442,7 @@
       <c r="C743" t="n">
         <v>662</v>
       </c>
-      <c r="D743" s="1" t="n">
+      <c r="D743" t="n">
         <v>100</v>
       </c>
       <c r="E743" t="n">
@@ -28355,7 +28479,7 @@
       <c r="C744" t="n">
         <v>180</v>
       </c>
-      <c r="D744" s="1" t="n">
+      <c r="D744" t="n">
         <v>100</v>
       </c>
       <c r="E744" t="n">
@@ -28392,7 +28516,7 @@
       <c r="C745" t="n">
         <v>150</v>
       </c>
-      <c r="D745" s="1" t="inlineStr">
+      <c r="D745" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28431,7 +28555,7 @@
       <c r="C746" t="n">
         <v>727</v>
       </c>
-      <c r="D746" s="1" t="inlineStr">
+      <c r="D746" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28470,7 +28594,7 @@
       <c r="C747" t="n">
         <v>730</v>
       </c>
-      <c r="D747" s="1" t="n">
+      <c r="D747" t="n">
         <v>100</v>
       </c>
       <c r="E747" t="n">
@@ -28507,7 +28631,7 @@
       <c r="C748" t="n">
         <v>147</v>
       </c>
-      <c r="D748" s="1" t="n">
+      <c r="D748" t="n">
         <v>100</v>
       </c>
       <c r="E748" t="n">
@@ -28544,7 +28668,7 @@
       <c r="C749" t="n">
         <v>671</v>
       </c>
-      <c r="D749" s="1" t="inlineStr">
+      <c r="D749" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28583,7 +28707,7 @@
       <c r="C750" t="n">
         <v>831</v>
       </c>
-      <c r="D750" s="1" t="n">
+      <c r="D750" t="n">
         <v>80</v>
       </c>
       <c r="E750" t="n">
@@ -28620,7 +28744,7 @@
       <c r="C751" t="n">
         <v>446</v>
       </c>
-      <c r="D751" s="1" t="inlineStr">
+      <c r="D751" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28659,7 +28783,7 @@
       <c r="C752" t="n">
         <v>592</v>
       </c>
-      <c r="D752" s="1" t="n">
+      <c r="D752" t="n">
         <v>95</v>
       </c>
       <c r="E752" t="n">
@@ -28696,7 +28820,7 @@
       <c r="C753" t="n">
         <v>537</v>
       </c>
-      <c r="D753" s="1" t="n">
+      <c r="D753" t="n">
         <v>100</v>
       </c>
       <c r="E753" t="n">
@@ -28733,7 +28857,7 @@
       <c r="C754" t="n">
         <v>796</v>
       </c>
-      <c r="D754" s="1" t="n">
+      <c r="D754" t="n">
         <v>95</v>
       </c>
       <c r="E754" t="n">
@@ -28770,7 +28894,7 @@
       <c r="C755" t="n">
         <v>798</v>
       </c>
-      <c r="D755" s="1" t="n">
+      <c r="D755" t="n">
         <v>100</v>
       </c>
       <c r="E755" t="n">
@@ -28807,7 +28931,7 @@
       <c r="C756" t="n">
         <v>211</v>
       </c>
-      <c r="D756" s="1" t="n">
+      <c r="D756" t="n">
         <v>90</v>
       </c>
       <c r="E756" t="n">
@@ -28844,7 +28968,7 @@
       <c r="C757" t="n">
         <v>564</v>
       </c>
-      <c r="D757" s="1" t="inlineStr">
+      <c r="D757" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28883,7 +29007,7 @@
       <c r="C758" t="n">
         <v>254</v>
       </c>
-      <c r="D758" s="1" t="inlineStr">
+      <c r="D758" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28922,7 +29046,7 @@
       <c r="C759" t="n">
         <v>700</v>
       </c>
-      <c r="D759" s="1" t="inlineStr">
+      <c r="D759" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -28961,7 +29085,7 @@
       <c r="C760" t="n">
         <v>23</v>
       </c>
-      <c r="D760" s="1" t="n">
+      <c r="D760" t="n">
         <v>100</v>
       </c>
       <c r="E760" t="n">
@@ -28998,7 +29122,7 @@
       <c r="C761" t="n">
         <v>830</v>
       </c>
-      <c r="D761" s="1" t="n">
+      <c r="D761" t="n">
         <v>90</v>
       </c>
       <c r="E761" t="n">
@@ -29035,7 +29159,7 @@
       <c r="C762" t="n">
         <v>444</v>
       </c>
-      <c r="D762" s="1" t="n">
+      <c r="D762" t="n">
         <v>80</v>
       </c>
       <c r="E762" t="n">
@@ -29072,7 +29196,7 @@
       <c r="C763" t="n">
         <v>480</v>
       </c>
-      <c r="D763" s="1" t="n">
+      <c r="D763" t="n">
         <v>100</v>
       </c>
       <c r="E763" t="n">
@@ -29109,7 +29233,7 @@
       <c r="C764" t="n">
         <v>790</v>
       </c>
-      <c r="D764" s="1" t="n">
+      <c r="D764" t="n">
         <v>95</v>
       </c>
       <c r="E764" t="n">
@@ -29146,7 +29270,7 @@
       <c r="C765" t="n">
         <v>70</v>
       </c>
-      <c r="D765" s="1" t="n">
+      <c r="D765" t="n">
         <v>100</v>
       </c>
       <c r="E765" t="n">
@@ -29183,7 +29307,7 @@
       <c r="C766" t="n">
         <v>668</v>
       </c>
-      <c r="D766" s="1" t="n">
+      <c r="D766" t="n">
         <v>100</v>
       </c>
       <c r="E766" t="n">
@@ -29220,7 +29344,7 @@
       <c r="C767" t="n">
         <v>81</v>
       </c>
-      <c r="D767" s="1" t="n">
+      <c r="D767" t="n">
         <v>95</v>
       </c>
       <c r="E767" t="n">
@@ -29257,7 +29381,7 @@
       <c r="C768" t="n">
         <v>165</v>
       </c>
-      <c r="D768" s="1" t="inlineStr">
+      <c r="D768" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -29296,7 +29420,7 @@
       <c r="C769" t="n">
         <v>522</v>
       </c>
-      <c r="D769" s="1" t="n">
+      <c r="D769" t="n">
         <v>100</v>
       </c>
       <c r="E769" t="n">
@@ -29333,7 +29457,7 @@
       <c r="C770" t="n">
         <v>747</v>
       </c>
-      <c r="D770" s="1" t="inlineStr">
+      <c r="D770" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -29372,7 +29496,7 @@
       <c r="C771" t="n">
         <v>78</v>
       </c>
-      <c r="D771" s="1" t="n">
+      <c r="D771" t="n">
         <v>75</v>
       </c>
       <c r="E771" t="n">
@@ -29409,7 +29533,7 @@
       <c r="C772" t="n">
         <v>66</v>
       </c>
-      <c r="D772" s="1" t="n">
+      <c r="D772" t="n">
         <v>80</v>
       </c>
       <c r="E772" t="n">
@@ -29446,7 +29570,7 @@
       <c r="C773" t="n">
         <v>164</v>
       </c>
-      <c r="D773" s="1" t="inlineStr">
+      <c r="D773" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -29485,7 +29609,7 @@
       <c r="C774" t="n">
         <v>650</v>
       </c>
-      <c r="D774" s="1" t="inlineStr">
+      <c r="D774" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -29524,7 +29648,7 @@
       <c r="C775" t="n">
         <v>389</v>
       </c>
-      <c r="D775" s="1" t="n">
+      <c r="D775" t="n">
         <v>100</v>
       </c>
       <c r="E775" t="n">
@@ -29561,7 +29685,7 @@
       <c r="C776" t="n">
         <v>241</v>
       </c>
-      <c r="D776" s="1" t="inlineStr">
+      <c r="D776" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -29600,7 +29724,7 @@
       <c r="C777" t="n">
         <v>713</v>
       </c>
-      <c r="D777" s="1" t="n">
+      <c r="D777" t="n">
         <v>100</v>
       </c>
       <c r="E777" t="n">
@@ -29637,7 +29761,7 @@
       <c r="C778" t="n">
         <v>916</v>
       </c>
-      <c r="D778" s="1" t="n">
+      <c r="D778" t="n">
         <v>95</v>
       </c>
       <c r="E778" t="n">
@@ -29674,7 +29798,7 @@
       <c r="C779" t="n">
         <v>276</v>
       </c>
-      <c r="D779" s="1" t="n">
+      <c r="D779" t="n">
         <v>100</v>
       </c>
       <c r="E779" t="n">
@@ -29711,7 +29835,7 @@
       <c r="C780" t="n">
         <v>48</v>
       </c>
-      <c r="D780" s="1" t="n">
+      <c r="D780" t="n">
         <v>55</v>
       </c>
       <c r="E780" t="n">
@@ -29748,7 +29872,7 @@
       <c r="C781" t="n">
         <v>626</v>
       </c>
-      <c r="D781" s="1" t="inlineStr">
+      <c r="D781" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -29787,7 +29911,7 @@
       <c r="C782" t="n">
         <v>57</v>
       </c>
-      <c r="D782" s="1" t="n">
+      <c r="D782" t="n">
         <v>100</v>
       </c>
       <c r="E782" t="n">
@@ -29824,7 +29948,7 @@
       <c r="C783" t="n">
         <v>818</v>
       </c>
-      <c r="D783" s="1" t="n">
+      <c r="D783" t="n">
         <v>100</v>
       </c>
       <c r="E783" t="n">
@@ -29861,7 +29985,7 @@
       <c r="C784" t="n">
         <v>207</v>
       </c>
-      <c r="D784" s="1" t="n">
+      <c r="D784" t="n">
         <v>85</v>
       </c>
       <c r="E784" t="n">
@@ -29898,7 +30022,7 @@
       <c r="C785" t="n">
         <v>256</v>
       </c>
-      <c r="D785" s="1" t="inlineStr">
+      <c r="D785" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -29937,7 +30061,7 @@
       <c r="C786" t="n">
         <v>186</v>
       </c>
-      <c r="D786" s="1" t="n">
+      <c r="D786" t="n">
         <v>75</v>
       </c>
       <c r="E786" t="n">
@@ -29974,7 +30098,7 @@
       <c r="C787" t="n">
         <v>230</v>
       </c>
-      <c r="D787" s="1" t="n">
+      <c r="D787" t="n">
         <v>100</v>
       </c>
       <c r="E787" t="n">
@@ -30011,7 +30135,7 @@
       <c r="C788" t="n">
         <v>129</v>
       </c>
-      <c r="D788" s="1" t="inlineStr">
+      <c r="D788" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30050,7 +30174,7 @@
       <c r="C789" t="n">
         <v>415</v>
       </c>
-      <c r="D789" s="1" t="n">
+      <c r="D789" t="n">
         <v>100</v>
       </c>
       <c r="E789" t="n">
@@ -30087,7 +30211,7 @@
       <c r="C790" t="n">
         <v>14</v>
       </c>
-      <c r="D790" s="1" t="inlineStr">
+      <c r="D790" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30126,7 +30250,7 @@
       <c r="C791" t="n">
         <v>485</v>
       </c>
-      <c r="D791" s="1" t="n">
+      <c r="D791" t="n">
         <v>100</v>
       </c>
       <c r="E791" t="n">
@@ -30163,7 +30287,7 @@
       <c r="C792" t="n">
         <v>235</v>
       </c>
-      <c r="D792" s="1" t="inlineStr">
+      <c r="D792" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30202,7 +30326,7 @@
       <c r="C793" t="n">
         <v>903</v>
       </c>
-      <c r="D793" s="1" t="n">
+      <c r="D793" t="n">
         <v>85</v>
       </c>
       <c r="E793" t="n">
@@ -30239,7 +30363,7 @@
       <c r="C794" t="n">
         <v>911</v>
       </c>
-      <c r="D794" s="1" t="inlineStr">
+      <c r="D794" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30278,7 +30402,7 @@
       <c r="C795" t="n">
         <v>33</v>
       </c>
-      <c r="D795" s="1" t="n">
+      <c r="D795" t="n">
         <v>100</v>
       </c>
       <c r="E795" t="n">
@@ -30315,7 +30439,7 @@
       <c r="C796" t="n">
         <v>294</v>
       </c>
-      <c r="D796" s="1" t="inlineStr">
+      <c r="D796" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30354,7 +30478,7 @@
       <c r="C797" t="n">
         <v>541</v>
       </c>
-      <c r="D797" s="1" t="n">
+      <c r="D797" t="n">
         <v>85</v>
       </c>
       <c r="E797" t="n">
@@ -30391,7 +30515,7 @@
       <c r="C798" t="n">
         <v>39</v>
       </c>
-      <c r="D798" s="1" t="n">
+      <c r="D798" t="n">
         <v>100</v>
       </c>
       <c r="E798" t="n">
@@ -30428,7 +30552,7 @@
       <c r="C799" t="n">
         <v>366</v>
       </c>
-      <c r="D799" s="1" t="inlineStr">
+      <c r="D799" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30467,7 +30591,7 @@
       <c r="C800" t="n">
         <v>36</v>
       </c>
-      <c r="D800" s="1" t="n">
+      <c r="D800" t="n">
         <v>85</v>
       </c>
       <c r="E800" t="n">
@@ -30504,7 +30628,7 @@
       <c r="C801" t="n">
         <v>850</v>
       </c>
-      <c r="D801" s="1" t="inlineStr">
+      <c r="D801" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30543,7 +30667,7 @@
       <c r="C802" t="n">
         <v>749</v>
       </c>
-      <c r="D802" s="1" t="n">
+      <c r="D802" t="n">
         <v>100</v>
       </c>
       <c r="E802" t="n">
@@ -30580,7 +30704,7 @@
       <c r="C803" t="n">
         <v>269</v>
       </c>
-      <c r="D803" s="1" t="n">
+      <c r="D803" t="n">
         <v>100</v>
       </c>
       <c r="E803" t="n">
@@ -30617,7 +30741,7 @@
       <c r="C804" t="n">
         <v>715</v>
       </c>
-      <c r="D804" s="1" t="inlineStr">
+      <c r="D804" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30656,7 +30780,7 @@
       <c r="C805" t="n">
         <v>752</v>
       </c>
-      <c r="D805" s="1" t="inlineStr">
+      <c r="D805" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30695,7 +30819,7 @@
       <c r="C806" t="n">
         <v>546</v>
       </c>
-      <c r="D806" s="1" t="n">
+      <c r="D806" t="n">
         <v>100</v>
       </c>
       <c r="E806" t="n">
@@ -30732,7 +30856,7 @@
       <c r="C807" t="n">
         <v>630</v>
       </c>
-      <c r="D807" s="1" t="inlineStr">
+      <c r="D807" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30771,7 +30895,7 @@
       <c r="C808" t="n">
         <v>298</v>
       </c>
-      <c r="D808" s="1" t="n">
+      <c r="D808" t="n">
         <v>100</v>
       </c>
       <c r="E808" t="n">
@@ -30808,7 +30932,7 @@
       <c r="C809" t="n">
         <v>477</v>
       </c>
-      <c r="D809" s="1" t="inlineStr">
+      <c r="D809" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30847,7 +30971,7 @@
       <c r="C810" t="n">
         <v>100</v>
       </c>
-      <c r="D810" s="1" t="inlineStr">
+      <c r="D810" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -30886,7 +31010,7 @@
       <c r="C811" t="n">
         <v>906</v>
       </c>
-      <c r="D811" s="1" t="n">
+      <c r="D811" t="n">
         <v>100</v>
       </c>
       <c r="E811" t="n">
@@ -30923,7 +31047,7 @@
       <c r="C812" t="n">
         <v>805</v>
       </c>
-      <c r="D812" s="1" t="n">
+      <c r="D812" t="n">
         <v>100</v>
       </c>
       <c r="E812" t="n">
@@ -30960,7 +31084,7 @@
       <c r="C813" t="n">
         <v>168</v>
       </c>
-      <c r="D813" s="1" t="n">
+      <c r="D813" t="n">
         <v>100</v>
       </c>
       <c r="E813" t="n">
@@ -30997,7 +31121,7 @@
       <c r="C814" t="n">
         <v>614</v>
       </c>
-      <c r="D814" s="1" t="n">
+      <c r="D814" t="n">
         <v>100</v>
       </c>
       <c r="E814" t="n">
@@ -31034,7 +31158,7 @@
       <c r="C815" t="n">
         <v>615</v>
       </c>
-      <c r="D815" s="1" t="n">
+      <c r="D815" t="n">
         <v>100</v>
       </c>
       <c r="E815" t="n">
@@ -31071,7 +31195,7 @@
       <c r="C816" t="n">
         <v>37</v>
       </c>
-      <c r="D816" s="1" t="n">
+      <c r="D816" t="n">
         <v>100</v>
       </c>
       <c r="E816" t="n">
@@ -31108,7 +31232,7 @@
       <c r="C817" t="n">
         <v>675</v>
       </c>
-      <c r="D817" s="1" t="n">
+      <c r="D817" t="n">
         <v>100</v>
       </c>
       <c r="E817" t="n">
@@ -31145,7 +31269,7 @@
       <c r="C818" t="n">
         <v>87</v>
       </c>
-      <c r="D818" s="1" t="n">
+      <c r="D818" t="n">
         <v>70</v>
       </c>
       <c r="E818" t="n">
@@ -31182,7 +31306,7 @@
       <c r="C819" t="n">
         <v>85</v>
       </c>
-      <c r="D819" s="1" t="n">
+      <c r="D819" t="n">
         <v>100</v>
       </c>
       <c r="E819" t="n">
@@ -31219,7 +31343,7 @@
       <c r="C820" t="n">
         <v>819</v>
       </c>
-      <c r="D820" s="1" t="n">
+      <c r="D820" t="n">
         <v>90</v>
       </c>
       <c r="E820" t="n">
@@ -31256,7 +31380,7 @@
       <c r="C821" t="n">
         <v>909</v>
       </c>
-      <c r="D821" s="1" t="n">
+      <c r="D821" t="n">
         <v>100</v>
       </c>
       <c r="E821" t="n">
@@ -31293,7 +31417,7 @@
       <c r="C822" t="n">
         <v>422</v>
       </c>
-      <c r="D822" s="1" t="n">
+      <c r="D822" t="n">
         <v>95</v>
       </c>
       <c r="E822" t="n">
@@ -31330,7 +31454,7 @@
       <c r="C823" t="n">
         <v>823</v>
       </c>
-      <c r="D823" s="1" t="n">
+      <c r="D823" t="n">
         <v>100</v>
       </c>
       <c r="E823" t="n">
@@ -31367,7 +31491,7 @@
       <c r="C824" t="n">
         <v>9</v>
       </c>
-      <c r="D824" s="1" t="n">
+      <c r="D824" t="n">
         <v>100</v>
       </c>
       <c r="E824" t="n">
@@ -31404,7 +31528,7 @@
       <c r="C825" t="n">
         <v>84</v>
       </c>
-      <c r="D825" s="1" t="n">
+      <c r="D825" t="n">
         <v>100</v>
       </c>
       <c r="E825" t="n">
@@ -31441,7 +31565,7 @@
       <c r="C826" t="n">
         <v>86</v>
       </c>
-      <c r="D826" s="1" t="n">
+      <c r="D826" t="n">
         <v>90</v>
       </c>
       <c r="E826" t="n">
@@ -31478,7 +31602,7 @@
       <c r="C827" t="n">
         <v>321</v>
       </c>
-      <c r="D827" s="1" t="n">
+      <c r="D827" t="n">
         <v>100</v>
       </c>
       <c r="E827" t="n">
@@ -31515,7 +31639,7 @@
       <c r="C828" t="n">
         <v>882</v>
       </c>
-      <c r="D828" s="1" t="inlineStr">
+      <c r="D828" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -31554,7 +31678,7 @@
       <c r="C829" t="n">
         <v>576</v>
       </c>
-      <c r="D829" s="1" t="inlineStr">
+      <c r="D829" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -31593,7 +31717,7 @@
       <c r="C830" t="n">
         <v>871</v>
       </c>
-      <c r="D830" s="1" t="n">
+      <c r="D830" t="n">
         <v>100</v>
       </c>
       <c r="E830" t="n">
@@ -31630,7 +31754,7 @@
       <c r="C831" t="n">
         <v>259</v>
       </c>
-      <c r="D831" s="1" t="n">
+      <c r="D831" t="n">
         <v>100</v>
       </c>
       <c r="E831" t="n">
@@ -31667,7 +31791,7 @@
       <c r="C832" t="n">
         <v>92</v>
       </c>
-      <c r="D832" s="1" t="n">
+      <c r="D832" t="n">
         <v>90</v>
       </c>
       <c r="E832" t="n">
@@ -31704,7 +31828,7 @@
       <c r="C833" t="n">
         <v>390</v>
       </c>
-      <c r="D833" s="1" t="inlineStr">
+      <c r="D833" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -31743,7 +31867,7 @@
       <c r="C834" t="n">
         <v>672</v>
       </c>
-      <c r="D834" s="1" t="n">
+      <c r="D834" t="n">
         <v>100</v>
       </c>
       <c r="E834" t="n">
@@ -31780,7 +31904,7 @@
       <c r="C835" t="n">
         <v>885</v>
       </c>
-      <c r="D835" s="1" t="n">
+      <c r="D835" t="n">
         <v>100</v>
       </c>
       <c r="E835" t="n">
@@ -31817,7 +31941,7 @@
       <c r="C836" t="n">
         <v>144</v>
       </c>
-      <c r="D836" s="1" t="inlineStr">
+      <c r="D836" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -31856,7 +31980,7 @@
       <c r="C837" t="n">
         <v>161</v>
       </c>
-      <c r="D837" s="1" t="n">
+      <c r="D837" t="n">
         <v>100</v>
       </c>
       <c r="E837" t="n">
@@ -31893,7 +32017,7 @@
       <c r="C838" t="n">
         <v>271</v>
       </c>
-      <c r="D838" s="1" t="n">
+      <c r="D838" t="n">
         <v>100</v>
       </c>
       <c r="E838" t="n">
@@ -31930,7 +32054,7 @@
       <c r="C839" t="n">
         <v>567</v>
       </c>
-      <c r="D839" s="1" t="n">
+      <c r="D839" t="n">
         <v>100</v>
       </c>
       <c r="E839" t="n">
@@ -31967,7 +32091,7 @@
       <c r="C840" t="n">
         <v>433</v>
       </c>
-      <c r="D840" s="1" t="inlineStr">
+      <c r="D840" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -32006,7 +32130,7 @@
       <c r="C841" t="n">
         <v>843</v>
       </c>
-      <c r="D841" s="1" t="n">
+      <c r="D841" t="n">
         <v>100</v>
       </c>
       <c r="E841" t="n">
@@ -32043,7 +32167,7 @@
       <c r="C842" t="n">
         <v>865</v>
       </c>
-      <c r="D842" s="1" t="n">
+      <c r="D842" t="n">
         <v>95</v>
       </c>
       <c r="E842" t="n">
@@ -32080,7 +32204,7 @@
       <c r="C843" t="n">
         <v>688</v>
       </c>
-      <c r="D843" s="1" t="n">
+      <c r="D843" t="n">
         <v>100</v>
       </c>
       <c r="E843" t="n">
@@ -32117,7 +32241,7 @@
       <c r="C844" t="n">
         <v>888</v>
       </c>
-      <c r="D844" s="1" t="n">
+      <c r="D844" t="n">
         <v>100</v>
       </c>
       <c r="E844" t="n">
@@ -32154,7 +32278,7 @@
       <c r="C845" t="n">
         <v>41</v>
       </c>
-      <c r="D845" s="1" t="n">
+      <c r="D845" t="n">
         <v>100</v>
       </c>
       <c r="E845" t="n">
@@ -32191,7 +32315,7 @@
       <c r="C846" t="n">
         <v>656</v>
       </c>
-      <c r="D846" s="1" t="inlineStr">
+      <c r="D846" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -32230,7 +32354,7 @@
       <c r="C847" t="n">
         <v>239</v>
       </c>
-      <c r="D847" s="1" t="n">
+      <c r="D847" t="n">
         <v>100</v>
       </c>
       <c r="E847" t="n">
@@ -32267,7 +32391,7 @@
       <c r="C848" t="n">
         <v>369</v>
       </c>
-      <c r="D848" s="1" t="n">
+      <c r="D848" t="n">
         <v>100</v>
       </c>
       <c r="E848" t="n">
@@ -32304,7 +32428,7 @@
       <c r="C849" t="n">
         <v>918</v>
       </c>
-      <c r="D849" s="1" t="n">
+      <c r="D849" t="n">
         <v>100</v>
       </c>
       <c r="E849" t="n">
@@ -32341,7 +32465,7 @@
       <c r="C850" t="n">
         <v>253</v>
       </c>
-      <c r="D850" s="1" t="n">
+      <c r="D850" t="n">
         <v>100</v>
       </c>
       <c r="E850" t="n">
@@ -32378,7 +32502,7 @@
       <c r="C851" t="n">
         <v>410</v>
       </c>
-      <c r="D851" s="1" t="n">
+      <c r="D851" t="n">
         <v>100</v>
       </c>
       <c r="E851" t="n">
@@ -32415,7 +32539,7 @@
       <c r="C852" t="n">
         <v>557</v>
       </c>
-      <c r="D852" s="1" t="n">
+      <c r="D852" t="n">
         <v>95</v>
       </c>
       <c r="E852" t="n">
@@ -32452,7 +32576,7 @@
       <c r="C853" t="n">
         <v>599</v>
       </c>
-      <c r="D853" s="1" t="n">
+      <c r="D853" t="n">
         <v>100</v>
       </c>
       <c r="E853" t="n">
@@ -32489,7 +32613,7 @@
       <c r="C854" t="n">
         <v>474</v>
       </c>
-      <c r="D854" s="1" t="n">
+      <c r="D854" t="n">
         <v>100</v>
       </c>
       <c r="E854" t="n">
@@ -32526,7 +32650,7 @@
       <c r="C855" t="n">
         <v>837</v>
       </c>
-      <c r="D855" s="1" t="inlineStr">
+      <c r="D855" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -32565,7 +32689,7 @@
       <c r="C856" t="n">
         <v>22</v>
       </c>
-      <c r="D856" s="1" t="n">
+      <c r="D856" t="n">
         <v>100</v>
       </c>
       <c r="E856" t="n">
@@ -32602,7 +32726,7 @@
       <c r="C857" t="n">
         <v>11</v>
       </c>
-      <c r="D857" s="1" t="n">
+      <c r="D857" t="n">
         <v>100</v>
       </c>
       <c r="E857" t="n">
@@ -32639,7 +32763,7 @@
       <c r="C858" t="n">
         <v>233</v>
       </c>
-      <c r="D858" s="1" t="inlineStr">
+      <c r="D858" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -32678,7 +32802,7 @@
       <c r="C859" t="n">
         <v>521</v>
       </c>
-      <c r="D859" s="1" t="n">
+      <c r="D859" t="n">
         <v>100</v>
       </c>
       <c r="E859" t="n">
@@ -32715,7 +32839,7 @@
       <c r="C860" t="n">
         <v>344</v>
       </c>
-      <c r="D860" s="1" t="n">
+      <c r="D860" t="n">
         <v>100</v>
       </c>
       <c r="E860" t="n">
@@ -32752,7 +32876,7 @@
       <c r="C861" t="n">
         <v>127</v>
       </c>
-      <c r="D861" s="1" t="n">
+      <c r="D861" t="n">
         <v>100</v>
       </c>
       <c r="E861" t="n">
@@ -32789,7 +32913,7 @@
       <c r="C862" t="n">
         <v>55</v>
       </c>
-      <c r="D862" s="1" t="n">
+      <c r="D862" t="n">
         <v>100</v>
       </c>
       <c r="E862" t="n">
@@ -32826,7 +32950,7 @@
       <c r="C863" t="n">
         <v>352</v>
       </c>
-      <c r="D863" s="1" t="n">
+      <c r="D863" t="n">
         <v>100</v>
       </c>
       <c r="E863" t="n">
@@ -32863,7 +32987,7 @@
       <c r="C864" t="n">
         <v>346</v>
       </c>
-      <c r="D864" s="1" t="inlineStr">
+      <c r="D864" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -32902,7 +33026,7 @@
       <c r="C865" t="n">
         <v>834</v>
       </c>
-      <c r="D865" s="1" t="n">
+      <c r="D865" t="n">
         <v>100</v>
       </c>
       <c r="E865" t="n">
@@ -32939,7 +33063,7 @@
       <c r="C866" t="n">
         <v>311</v>
       </c>
-      <c r="D866" s="1" t="n">
+      <c r="D866" t="n">
         <v>100</v>
       </c>
       <c r="E866" t="n">
@@ -32976,7 +33100,7 @@
       <c r="C867" t="n">
         <v>250</v>
       </c>
-      <c r="D867" s="1" t="n">
+      <c r="D867" t="n">
         <v>85</v>
       </c>
       <c r="E867" t="n">
@@ -33013,7 +33137,7 @@
       <c r="C868" t="n">
         <v>18</v>
       </c>
-      <c r="D868" s="1" t="inlineStr">
+      <c r="D868" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -33052,7 +33176,7 @@
       <c r="C869" t="n">
         <v>817</v>
       </c>
-      <c r="D869" s="1" t="n">
+      <c r="D869" t="n">
         <v>100</v>
       </c>
       <c r="E869" t="n">
@@ -33089,7 +33213,7 @@
       <c r="C870" t="n">
         <v>897</v>
       </c>
-      <c r="D870" s="1" t="n">
+      <c r="D870" t="n">
         <v>100</v>
       </c>
       <c r="E870" t="n">
@@ -33106,7 +33230,11 @@
           <t>Physical</t>
         </is>
       </c>
-      <c r="I870" t="inlineStr"/>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -33122,7 +33250,7 @@
       <c r="C871" t="n">
         <v>469</v>
       </c>
-      <c r="D871" s="1" t="inlineStr">
+      <c r="D871" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -33161,7 +33289,7 @@
       <c r="C872" t="n">
         <v>847</v>
       </c>
-      <c r="D872" s="1" t="n">
+      <c r="D872" t="n">
         <v>80</v>
       </c>
       <c r="E872" t="n">
@@ -33198,7 +33326,7 @@
       <c r="C873" t="n">
         <v>528</v>
       </c>
-      <c r="D873" s="1" t="n">
+      <c r="D873" t="n">
         <v>100</v>
       </c>
       <c r="E873" t="n">
@@ -33235,7 +33363,7 @@
       <c r="C874" t="n">
         <v>261</v>
       </c>
-      <c r="D874" s="1" t="n">
+      <c r="D874" t="n">
         <v>85</v>
       </c>
       <c r="E874" t="n">
@@ -33272,7 +33400,7 @@
       <c r="C875" t="n">
         <v>17</v>
       </c>
-      <c r="D875" s="1" t="n">
+      <c r="D875" t="n">
         <v>100</v>
       </c>
       <c r="E875" t="n">
@@ -33309,7 +33437,7 @@
       <c r="C876" t="n">
         <v>273</v>
       </c>
-      <c r="D876" s="1" t="inlineStr">
+      <c r="D876" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -33348,7 +33476,7 @@
       <c r="C877" t="n">
         <v>110</v>
       </c>
-      <c r="D877" s="1" t="inlineStr">
+      <c r="D877" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -33387,7 +33515,7 @@
       <c r="C878" t="n">
         <v>472</v>
       </c>
-      <c r="D878" s="1" t="inlineStr">
+      <c r="D878" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -33426,7 +33554,7 @@
       <c r="C879" t="n">
         <v>452</v>
       </c>
-      <c r="D879" s="1" t="n">
+      <c r="D879" t="n">
         <v>100</v>
       </c>
       <c r="E879" t="n">
@@ -33463,7 +33591,7 @@
       <c r="C880" t="n">
         <v>526</v>
       </c>
-      <c r="D880" s="1" t="inlineStr">
+      <c r="D880" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -33502,7 +33630,7 @@
       <c r="C881" t="n">
         <v>388</v>
       </c>
-      <c r="D881" s="1" t="n">
+      <c r="D881" t="n">
         <v>100</v>
       </c>
       <c r="E881" t="n">
@@ -33539,7 +33667,7 @@
       <c r="C882" t="n">
         <v>35</v>
       </c>
-      <c r="D882" s="1" t="n">
+      <c r="D882" t="n">
         <v>90</v>
       </c>
       <c r="E882" t="n">
@@ -33576,7 +33704,7 @@
       <c r="C883" t="n">
         <v>404</v>
       </c>
-      <c r="D883" s="1" t="n">
+      <c r="D883" t="n">
         <v>100</v>
       </c>
       <c r="E883" t="n">
@@ -33613,7 +33741,7 @@
       <c r="C884" t="n">
         <v>281</v>
       </c>
-      <c r="D884" s="1" t="inlineStr">
+      <c r="D884" t="inlineStr">
         <is>
           <t>true</t>
         </is>
@@ -33652,7 +33780,7 @@
       <c r="C885" t="n">
         <v>192</v>
       </c>
-      <c r="D885" s="1" t="n">
+      <c r="D885" t="n">
         <v>50</v>
       </c>
       <c r="E885" t="n">
@@ -33689,7 +33817,7 @@
       <c r="C886" t="n">
         <v>428</v>
       </c>
-      <c r="D886" s="1" t="n">
+      <c r="D886" t="n">
         <v>90</v>
       </c>
       <c r="E886" t="n">
@@ -33726,7 +33854,7 @@
       <c r="C887" t="n">
         <v>716</v>
       </c>
-      <c r="D887" s="1" t="n">
+      <c r="D887" t="n">
         <v>100</v>
       </c>
       <c r="E887" t="n">
@@ -33763,7 +33891,7 @@
       <c r="C888" t="n">
         <v>729</v>
       </c>
-      <c r="D888" s="1" t="n">
+      <c r="D888" t="n">
         <v>100</v>
       </c>
       <c r="E888" t="n">
@@ -33800,7 +33928,7 @@
       <c r="C889" t="n">
         <v>0</v>
       </c>
-      <c r="D889" s="1" t="n">
+      <c r="D889" t="n">
         <v>100</v>
       </c>
       <c r="E889" t="n">
@@ -33817,7 +33945,11 @@
           <t>Special</t>
         </is>
       </c>
-      <c r="I889" t="inlineStr"/>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
@@ -33833,7 +33965,7 @@
       <c r="C890" t="n">
         <v>0</v>
       </c>
-      <c r="D890" s="1" t="n">
+      <c r="D890" t="n">
         <v>95</v>
       </c>
       <c r="E890" t="n">
@@ -33850,7 +33982,11 @@
           <t>Physical</t>
         </is>
       </c>
-      <c r="I890" t="inlineStr"/>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
